--- a/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="128">
   <si>
     <t>Process</t>
   </si>
@@ -250,69 +250,69 @@
     <t>3.00000e00</t>
   </si>
   <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.770</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst_t</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>1.10000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>7.00000e00</t>
+  </si>
+  <si>
+    <t>5.00000e00</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>1.10000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>7.00000e00</t>
-  </si>
-  <si>
-    <t>5.00000e00</t>
-  </si>
-  <si>
     <t>tsmc2ff (3)</t>
   </si>
   <si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,18 +422,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9133"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -457,10 +479,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,77 +1041,77 @@
       <c r="S2" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>78</v>
+      <c r="T2" s="2">
+        <v>1117.11</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1218.78</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1167.94</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1116.94</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1218.43</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1167.68</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1240.56</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1341.61</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1291.09</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>126.769</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>130.09</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>133.052</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>135.887</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>38.4758</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>38.0221</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>2.31266</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>2.25361</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>2.09105</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>2.04742</v>
+      </c>
+      <c r="AM2">
+        <v>7.60646</v>
+      </c>
+      <c r="AN2">
+        <v>7.69724</v>
+      </c>
+      <c r="AO2">
+        <v>50.4177</v>
+      </c>
+      <c r="AP2">
+        <v>50.372</v>
+      </c>
+      <c r="AQ2">
+        <v>50.2641</v>
       </c>
       <c r="AR2">
         <v>626.7080000000001</v>
@@ -1154,133 +1179,133 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>87</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>88</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
         <v>90</v>
       </c>
-      <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>92</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>93</v>
       </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>78</v>
+      <c r="T3" s="2">
+        <v>1136.75</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1238.3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1187.52</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1136.43</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1237.79</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1187.11</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1260.59</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1361.66</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1311.12</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>123.048</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>127.333</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>131.941</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>134.728</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>39.2696</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>38.8692</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>2.49836</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>2.41429</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>2.21131</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>2.16558</v>
+      </c>
+      <c r="AM3">
+        <v>7.93586</v>
+      </c>
+      <c r="AN3">
+        <v>8.0176</v>
+      </c>
+      <c r="AO3">
+        <v>50.3879</v>
+      </c>
+      <c r="AP3">
+        <v>50.3409</v>
+      </c>
+      <c r="AQ3">
+        <v>50.2668</v>
       </c>
       <c r="AR3">
         <v>649.2339999999999</v>
@@ -1348,133 +1373,133 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
         <v>96</v>
       </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>97</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" s="2">
+        <v>1238.48</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1340.43</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1289.45</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1238.24</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1339.95</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1289.09</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1362.19</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1463.39</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1412.79</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>124.362</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>129.076</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>132.172</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>135.614</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>39.1072</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>78</v>
+      <c r="AI4" s="4">
+        <v>2.49389</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>2.40281</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>2.22775</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>2.1712</v>
+      </c>
+      <c r="AM4">
+        <v>8.030670000000001</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO4">
+        <v>50.4881</v>
+      </c>
+      <c r="AP4">
+        <v>50.4274</v>
+      </c>
+      <c r="AQ4">
+        <v>50.3</v>
       </c>
       <c r="AR4">
         <v>653</v>
@@ -1545,37 +1570,37 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>86</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>87</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>88</v>
       </c>
-      <c r="K5" t="s">
-        <v>89</v>
-      </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>100</v>
@@ -1590,7 +1615,7 @@
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
         <v>101</v>
@@ -1598,77 +1623,77 @@
       <c r="S5" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>78</v>
+      <c r="T5" s="2">
+        <v>1259.31</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1360.94</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1310.12</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1259.03</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1360.46</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1309.74</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1383.27</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1484.53</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1433.9</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>120.771</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>126.312</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>131.359</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>134.288</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>39.5204</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>2.26075</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>2.16157</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1.97167</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1.92867</v>
+      </c>
+      <c r="AM5">
+        <v>7.01106</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO5">
+        <v>50.4072</v>
+      </c>
+      <c r="AP5">
+        <v>50.3572</v>
+      </c>
+      <c r="AQ5">
+        <v>50.3153</v>
       </c>
       <c r="AR5">
         <v>577.904</v>
@@ -1739,37 +1764,37 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>83</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>85</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
         <v>100</v>
@@ -1784,85 +1809,85 @@
         <v>100</v>
       </c>
       <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
         <v>92</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>93</v>
       </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>78</v>
+      <c r="T6" s="2">
+        <v>1269.84</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1372.28</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1321.06</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1269.54</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1371.62</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1320.58</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1393.6</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1495.4</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1444.5</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>522.2510000000001</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>-271.065</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>131.366</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>135.687</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>39.004</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0.528708</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>-1.01864</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1.99332</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1.92984</v>
+      </c>
+      <c r="AM6">
+        <v>7.17055</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO6">
+        <v>50.6093</v>
+      </c>
+      <c r="AP6">
+        <v>50.52</v>
+      </c>
+      <c r="AQ6">
+        <v>50.4513</v>
       </c>
       <c r="AR6">
         <v>582.717</v>
@@ -1960,22 +1985,22 @@
         <v>112</v>
       </c>
       <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
         <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="s">
-        <v>91</v>
       </c>
       <c r="Q7" t="s">
         <v>113</v>
@@ -1986,77 +2011,77 @@
       <c r="S7" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>78</v>
+      <c r="T7" s="2">
+        <v>1097.83</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1199.25</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1148.54</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1097.7</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1198.98</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1148.34</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1221.15</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1321.9</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1271.52</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>128.143</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>130.747</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>133.637</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>136.116</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>38.1685</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>37.5569</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>2.30037</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>2.25454</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>2.09273</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>2.05462</v>
+      </c>
+      <c r="AM7">
+        <v>7.65145</v>
+      </c>
+      <c r="AN7">
+        <v>7.77605</v>
+      </c>
+      <c r="AO7">
+        <v>50.3556</v>
+      </c>
+      <c r="AP7">
+        <v>50.321</v>
+      </c>
+      <c r="AQ7">
+        <v>50.1867</v>
       </c>
       <c r="AR7">
         <v>641.4929999999999</v>
@@ -2154,22 +2179,22 @@
         <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
         <v>90</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s">
-        <v>91</v>
       </c>
       <c r="Q8" t="s">
         <v>113</v>
@@ -2180,77 +2205,77 @@
       <c r="S8" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>78</v>
+      <c r="T8" s="2">
+        <v>1094.42</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1195.99</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1145.21</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1094.34</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1195.76</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1145.05</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1217.61</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1318.43</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1268.02</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>128.514</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>131.287</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>133.879</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>136.51</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>38.4634</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>37.8488</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>2.37764</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>2.32742</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>2.16792</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>2.12614</v>
+      </c>
+      <c r="AM8">
+        <v>7.98184</v>
+      </c>
+      <c r="AN8">
+        <v>8.111459999999999</v>
+      </c>
+      <c r="AO8">
+        <v>50.3924</v>
+      </c>
+      <c r="AP8">
+        <v>50.3539</v>
+      </c>
+      <c r="AQ8">
+        <v>50.206</v>
       </c>
       <c r="AR8">
         <v>649.7669999999999</v>
@@ -2348,10 +2373,10 @@
         <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
         <v>100</v>
@@ -2374,77 +2399,77 @@
       <c r="S9" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>78</v>
+      <c r="T9" s="2">
+        <v>1108.03</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1209.55</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1158.79</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1107.87</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1209.23</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1158.55</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1231.38</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1332.2</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1281.79</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>127.764</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>130.672</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>133.452</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>136.142</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>38.2884</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>37.6579</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>2.07827</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>2.03201</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>1.888</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>1.8507</v>
+      </c>
+      <c r="AM9">
+        <v>6.8954</v>
+      </c>
+      <c r="AN9">
+        <v>7.01084</v>
+      </c>
+      <c r="AO9">
+        <v>50.3811</v>
+      </c>
+      <c r="AP9">
+        <v>50.3384</v>
+      </c>
+      <c r="AQ9">
+        <v>50.2041</v>
       </c>
       <c r="AR9">
         <v>574.628</v>
@@ -2542,10 +2567,10 @@
         <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
         <v>100</v>
@@ -2568,77 +2593,77 @@
       <c r="S10" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>78</v>
+      <c r="T10" s="2">
+        <v>1107.37</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1209.13</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1158.25</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1107.29</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1208.88</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1158.09</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1230.58</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1331.52</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1281.05</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>128.296</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>131.459</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>133.696</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>136.631</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>38.2554</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>37.6129</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>2.11641</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>2.06548</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>1.92845</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1.88702</v>
+      </c>
+      <c r="AM10">
+        <v>7.08759</v>
+      </c>
+      <c r="AN10">
+        <v>7.20866</v>
+      </c>
+      <c r="AO10">
+        <v>50.4415</v>
+      </c>
+      <c r="AP10">
+        <v>50.3956</v>
+      </c>
+      <c r="AQ10">
+        <v>50.235</v>
       </c>
       <c r="AR10">
         <v>579.289</v>
@@ -2902,77 +2927,77 @@
       <c r="S12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>120</v>
+      <c r="T12" s="2">
+        <v>1094.42</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1195.99</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1145.21</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1094.34</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1195.76</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1145.05</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1217.61</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1318.43</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1268.02</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>120.771</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>-271.065</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>131.359</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>134.288</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>38.1685</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>37.5569</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0.528708</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>-1.01864</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>1.888</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>1.8507</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>6.8954</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>7.01084</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>50.3556</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>50.321</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>50.1867</v>
       </c>
       <c r="AR12" s="1">
         <v>574.628</v>
@@ -3040,79 +3065,79 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>120</v>
+      <c r="T13" s="2">
+        <v>1269.84</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1372.28</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1321.06</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1269.54</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1371.62</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1320.58</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1393.6</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1495.4</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1444.5</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>522.2510000000001</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>131.459</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>133.879</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>136.631</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>39.5204</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>38.8692</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>2.49836</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>2.41429</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>2.22775</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>2.1712</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>8.030670000000001</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>8.111459999999999</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>50.6093</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>50.52</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>50.4513</v>
       </c>
       <c r="AR13" s="1">
         <v>653</v>
@@ -3180,7 +3205,7 @@
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T14" s="1">
         <v>500.0000000000001</v>
@@ -3257,7 +3282,7 @@
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -3334,7 +3359,7 @@
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC16" s="1">
         <v>20</v>
@@ -3384,7 +3409,7 @@
     </row>
     <row r="17" spans="19:64" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
@@ -3434,79 +3459,79 @@
     </row>
     <row r="18" spans="19:64" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1158.793333333334</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1260.516666666667</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1209.653333333333</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1158.597777777778</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1260.122222222222</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1209.358888888889</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1282.325555555556</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1383.404444444445</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1332.864444444444</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>169.9908888888889</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>85.10122222222223</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>132.7282222222222</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>135.7336666666667</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>38.72807777777777</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>37.92796666666667</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>2.107450888888889</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1.87701</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>2.063577777777778</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>2.01791</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>7.485653333333333</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>7.636975000000001</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>50.4312</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>50.38071111111111</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>50.26992222222222</v>
       </c>
       <c r="AR18" s="1">
         <v>614.9711111111111</v>
@@ -3574,79 +3599,79 @@
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="T19" s="1">
+        <v>69.99211495272566</v>
+      </c>
+      <c r="U19" s="1">
+        <v>70.2005419415612</v>
+      </c>
+      <c r="V19" s="1">
+        <v>70.09482085797146</v>
+      </c>
+      <c r="W19" s="1">
+        <v>69.92684205300687</v>
+      </c>
+      <c r="X19" s="1">
+        <v>70.0836946923348</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>70.00371108328535</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>70.21436401179071</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>70.4785497881938</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>70.34674328892581</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>124.5688998822601</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>125.9349050385227</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.964651206715298</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.7350088434842146</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.4719291467012534</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.44924791101969</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.5745855854301418</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1.031593714405046</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.1172554048768734</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.1154931112904815</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.4241849126134603</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.4017635932464926</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0.07259266874523447</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0.05782251473151844</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0.07635405508809048</v>
       </c>
       <c r="AR19" s="1">
         <v>33.31189153188539</v>
@@ -3714,79 +3739,79 @@
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="T20" s="1">
+        <v>6.040086091226417</v>
+      </c>
+      <c r="U20" s="1">
+        <v>5.56918792094997</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5.794620568259621</v>
+      </c>
+      <c r="W20" s="1">
+        <v>6.035471791351823</v>
+      </c>
+      <c r="X20" s="1">
+        <v>5.561658500771648</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5.788497668182022</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>5.475548990472313</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>5.094573034749573</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5.277861794733917</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>73.27975087163765</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>147.9824869138456</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.7267868058235695</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.5415081324585755</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1.21857105691945</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1.184476655360793</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>27.2644828147374</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>54.95941494211783</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>5.682141285856606</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>5.72340249517974</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>5.666638484640758</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>5.260768736921262</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0.1439439647385636</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.1147711365248398</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0.151888150434292</v>
       </c>
       <c r="AR20" s="1">
         <v>5.41682217750009</v>

--- a/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="128">
   <si>
     <t>Process</t>
   </si>
@@ -247,124 +247,124 @@
     <t>typical</t>
   </si>
   <si>
+    <t>8.00000e00</t>
+  </si>
+  <si>
+    <t>6.00000e00</t>
+  </si>
+  <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>1.80000e01</t>
+  </si>
+  <si>
+    <t>1.60000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (3)</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>2.30000e01</t>
+  </si>
+  <si>
+    <t>2.00000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (4)</t>
+  </si>
+  <si>
+    <t>1.90000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
     <t>3.00000e00</t>
   </si>
   <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>1.10000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>7.00000e00</t>
-  </si>
-  <si>
-    <t>5.00000e00</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>tsmc2ff (3)</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (4)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
+    <t>tsmc2ff (6)</t>
   </si>
   <si>
     <t>1.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>0.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,19 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +473,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,195 +1032,195 @@
         <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1117.11</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1218.78</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1167.94</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1116.94</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1218.43</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1167.68</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1240.56</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1341.61</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1291.09</v>
+        <v>78</v>
+      </c>
+      <c r="T2">
+        <v>140.475</v>
+      </c>
+      <c r="U2">
+        <v>140.632</v>
+      </c>
+      <c r="V2">
+        <v>140.553</v>
+      </c>
+      <c r="W2">
+        <v>350.448</v>
+      </c>
+      <c r="X2">
+        <v>139.165</v>
+      </c>
+      <c r="Y2">
+        <v>244.806</v>
+      </c>
+      <c r="Z2">
+        <v>259.944</v>
+      </c>
+      <c r="AA2">
+        <v>260.314</v>
+      </c>
+      <c r="AB2">
+        <v>260.129</v>
       </c>
       <c r="AC2" s="2">
-        <v>126.769</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>130.09</v>
+        <v>514.6930000000001</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>-289.213</v>
       </c>
       <c r="AE2" s="2">
-        <v>133.052</v>
+        <v>141.058</v>
       </c>
       <c r="AF2" s="2">
-        <v>135.887</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>38.4758</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>38.0221</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>2.31266</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>2.25361</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>2.09105</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>2.04742</v>
+        <v>141.124</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>41.9469</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>42.54750000000001</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.70941</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>-1.26249</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>2.53086</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>2.52968</v>
       </c>
       <c r="AM2">
-        <v>7.60646</v>
+        <v>9.588279999999999</v>
       </c>
       <c r="AN2">
-        <v>7.69724</v>
+        <v>9.45294</v>
       </c>
       <c r="AO2">
-        <v>50.4177</v>
+        <v>50.0277</v>
       </c>
       <c r="AP2">
-        <v>50.372</v>
+        <v>49.9842</v>
       </c>
       <c r="AQ2">
-        <v>50.2641</v>
+        <v>50.0842</v>
       </c>
       <c r="AR2">
-        <v>626.7080000000001</v>
+        <v>677.443</v>
       </c>
       <c r="AS2">
-        <v>138.086</v>
+        <v>68.89660000000001</v>
       </c>
       <c r="AT2">
-        <v>235.811</v>
+        <v>190.606</v>
       </c>
       <c r="AU2">
-        <v>528.9829999999999</v>
+        <v>555.7339999999999</v>
       </c>
       <c r="AV2">
-        <v>382.397</v>
+        <v>373.17</v>
       </c>
       <c r="AW2">
-        <v>488.621</v>
+        <v>608.5469999999999</v>
       </c>
       <c r="AX2">
-        <v>417.161</v>
+        <v>473.297</v>
       </c>
       <c r="AY2">
-        <v>614.6120000000001</v>
+        <v>670.6319999999999</v>
       </c>
       <c r="AZ2">
-        <v>150.914</v>
+        <v>75.6358</v>
       </c>
       <c r="BA2">
-        <v>243.654</v>
+        <v>194.635</v>
       </c>
       <c r="BB2">
-        <v>521.872</v>
+        <v>551.6319999999999</v>
       </c>
       <c r="BC2">
-        <v>382.763</v>
+        <v>373.134</v>
       </c>
       <c r="BD2">
-        <v>463.698</v>
+        <v>594.996</v>
       </c>
       <c r="BE2">
-        <v>416.71</v>
+        <v>472.513</v>
       </c>
       <c r="BF2">
-        <v>623.552</v>
+        <v>704.898</v>
       </c>
       <c r="BG2">
-        <v>135.776</v>
+        <v>34.5671</v>
       </c>
       <c r="BH2">
-        <v>233.331</v>
+        <v>168.633</v>
       </c>
       <c r="BI2">
-        <v>525.9970000000001</v>
+        <v>570.832</v>
       </c>
       <c r="BJ2">
-        <v>379.664</v>
+        <v>369.7329999999999</v>
       </c>
       <c r="BK2">
-        <v>487.775</v>
+        <v>670.331</v>
       </c>
       <c r="BL2">
-        <v>554.294</v>
+        <v>615.105</v>
       </c>
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
         <v>92</v>
@@ -1235,140 +1228,140 @@
       <c r="S3" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="2">
-        <v>1136.75</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1238.3</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1187.52</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1136.43</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1237.79</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1187.11</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1260.59</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1361.66</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>1311.12</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>123.048</v>
+      <c r="T3">
+        <v>157.413</v>
+      </c>
+      <c r="U3">
+        <v>157.474</v>
+      </c>
+      <c r="V3">
+        <v>157.444</v>
+      </c>
+      <c r="W3">
+        <v>369.286</v>
+      </c>
+      <c r="X3">
+        <v>366.477</v>
+      </c>
+      <c r="Y3">
+        <v>367.881</v>
+      </c>
+      <c r="Z3">
+        <v>277.283</v>
+      </c>
+      <c r="AA3">
+        <v>277.494</v>
+      </c>
+      <c r="AB3">
+        <v>277.388</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>-105.901</v>
       </c>
       <c r="AD3" s="2">
-        <v>127.333</v>
+        <v>185.953</v>
       </c>
       <c r="AE3" s="2">
-        <v>131.941</v>
+        <v>140.21</v>
       </c>
       <c r="AF3" s="2">
-        <v>134.728</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>39.2696</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>38.8692</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>2.49836</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>2.41429</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>2.21131</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>2.16558</v>
+        <v>139.517</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>39.8476</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>40.41520000000001</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>-3.36176</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1.91453</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>2.46424</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>2.47648</v>
       </c>
       <c r="AM3">
-        <v>7.93586</v>
+        <v>9.75905</v>
       </c>
       <c r="AN3">
-        <v>8.0176</v>
+        <v>9.622</v>
       </c>
       <c r="AO3">
-        <v>50.3879</v>
+        <v>49.9907</v>
       </c>
       <c r="AP3">
-        <v>50.3409</v>
+        <v>49.9822</v>
       </c>
       <c r="AQ3">
-        <v>50.2668</v>
+        <v>50.0317</v>
       </c>
       <c r="AR3">
-        <v>649.2339999999999</v>
+        <v>686.8149999999999</v>
       </c>
       <c r="AS3">
-        <v>136.871</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="AT3">
-        <v>239.343</v>
+        <v>212.131</v>
       </c>
       <c r="AU3">
-        <v>546.7610000000001</v>
+        <v>568.144</v>
       </c>
       <c r="AV3">
-        <v>393.052</v>
+        <v>390.137</v>
       </c>
       <c r="AW3">
-        <v>512.3630000000001</v>
+        <v>593.3549999999999</v>
       </c>
       <c r="AX3">
-        <v>438.709</v>
+        <v>490.89</v>
       </c>
       <c r="AY3">
-        <v>636.572</v>
+        <v>677.8889999999999</v>
       </c>
       <c r="AZ3">
-        <v>150.299</v>
+        <v>102.038</v>
       </c>
       <c r="BA3">
-        <v>247.554</v>
+        <v>217.208</v>
       </c>
       <c r="BB3">
-        <v>539.318</v>
+        <v>562.7189999999999</v>
       </c>
       <c r="BC3">
-        <v>393.436</v>
+        <v>389.963</v>
       </c>
       <c r="BD3">
-        <v>486.273</v>
+        <v>575.851</v>
       </c>
       <c r="BE3">
-        <v>438.219</v>
+        <v>489.976</v>
       </c>
       <c r="BF3">
-        <v>649.612</v>
+        <v>712.0840000000001</v>
       </c>
       <c r="BG3">
-        <v>130.216</v>
+        <v>63.96</v>
       </c>
       <c r="BH3">
-        <v>234.095</v>
+        <v>193.585</v>
       </c>
       <c r="BI3">
-        <v>545.7330000000001</v>
+        <v>582.4599999999999</v>
       </c>
       <c r="BJ3">
-        <v>389.914</v>
+        <v>388.022</v>
       </c>
       <c r="BK3">
-        <v>519.396</v>
+        <v>648.124</v>
       </c>
       <c r="BL3">
-        <v>576.0070000000001</v>
+        <v>630.7380000000001</v>
       </c>
     </row>
     <row r="4" spans="1:64">
@@ -1376,31 +1369,31 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
         <v>95</v>
@@ -1409,386 +1402,386 @@
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" t="s">
         <v>96</v>
       </c>
-      <c r="S4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1238.48</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1340.43</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1289.45</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1238.24</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1339.95</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1289.09</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1362.19</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1463.39</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1412.79</v>
+      <c r="T4">
+        <v>159.78</v>
+      </c>
+      <c r="U4">
+        <v>160.049</v>
+      </c>
+      <c r="V4">
+        <v>159.914</v>
+      </c>
+      <c r="W4">
+        <v>372.325</v>
+      </c>
+      <c r="X4">
+        <v>158.488</v>
+      </c>
+      <c r="Y4">
+        <v>265.406</v>
+      </c>
+      <c r="Z4">
+        <v>279.442</v>
+      </c>
+      <c r="AA4">
+        <v>280.068</v>
+      </c>
+      <c r="AB4">
+        <v>279.755</v>
       </c>
       <c r="AC4" s="2">
-        <v>124.362</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>129.076</v>
+        <v>294.453</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>-286.738</v>
       </c>
       <c r="AE4" s="2">
-        <v>132.172</v>
+        <v>140.154</v>
       </c>
       <c r="AF4" s="2">
-        <v>135.614</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>39.1072</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>2.49389</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>2.40281</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>2.22775</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>2.1712</v>
-      </c>
-      <c r="AM4">
-        <v>8.030670000000001</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>98</v>
+        <v>140.5</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>41.0377</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>41.8476</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1.27008</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>-1.30425</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>2.60011</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>2.59371</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>10.0498</v>
+      </c>
+      <c r="AN4">
+        <v>9.85534</v>
       </c>
       <c r="AO4">
-        <v>50.4881</v>
+        <v>50.0378</v>
       </c>
       <c r="AP4">
-        <v>50.4274</v>
+        <v>49.9753</v>
       </c>
       <c r="AQ4">
-        <v>50.3</v>
+        <v>50.1298</v>
       </c>
       <c r="AR4">
-        <v>653</v>
+        <v>703.572</v>
       </c>
       <c r="AS4">
-        <v>136.093</v>
+        <v>80.27489999999999</v>
       </c>
       <c r="AT4">
-        <v>239.474</v>
+        <v>204.934</v>
       </c>
       <c r="AU4">
-        <v>549.6189999999999</v>
+        <v>578.9119999999999</v>
       </c>
       <c r="AV4">
-        <v>394.547</v>
+        <v>391.923</v>
       </c>
       <c r="AW4">
-        <v>516.908</v>
+        <v>623.297</v>
       </c>
       <c r="AX4">
-        <v>538.8370000000001</v>
+        <v>493.405</v>
       </c>
       <c r="AY4">
-        <v>640.398</v>
+        <v>695.62</v>
       </c>
       <c r="AZ4">
-        <v>149.656</v>
+        <v>88.258</v>
       </c>
       <c r="BA4">
-        <v>247.804</v>
+        <v>209.73</v>
       </c>
       <c r="BB4">
-        <v>542.25</v>
+        <v>574.1469999999999</v>
       </c>
       <c r="BC4">
-        <v>395.027</v>
+        <v>391.939</v>
       </c>
       <c r="BD4">
-        <v>490.743</v>
+        <v>607.362</v>
       </c>
       <c r="BE4">
-        <v>538.485</v>
+        <v>492.561</v>
       </c>
       <c r="BF4">
-        <v>653.303</v>
+        <v>730.818</v>
       </c>
       <c r="BG4">
-        <v>129.874</v>
+        <v>43.4479</v>
       </c>
       <c r="BH4">
-        <v>234.56</v>
+        <v>180.922</v>
       </c>
       <c r="BI4">
-        <v>548.617</v>
+        <v>593.3439999999999</v>
       </c>
       <c r="BJ4">
-        <v>391.588</v>
+        <v>387.133</v>
       </c>
       <c r="BK4">
-        <v>523.429</v>
+        <v>687.37</v>
       </c>
       <c r="BL4">
-        <v>676.2280000000001</v>
+        <v>634.673</v>
       </c>
     </row>
     <row r="5" spans="1:64">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>100</v>
       </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1259.31</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1360.94</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1310.12</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1259.03</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1360.46</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1309.74</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1383.27</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1484.53</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1433.9</v>
+      <c r="T5">
+        <v>196.341</v>
+      </c>
+      <c r="U5">
+        <v>196.36</v>
+      </c>
+      <c r="V5">
+        <v>196.35</v>
+      </c>
+      <c r="W5">
+        <v>411.783</v>
+      </c>
+      <c r="X5">
+        <v>410.021</v>
+      </c>
+      <c r="Y5">
+        <v>410.902</v>
+      </c>
+      <c r="Z5">
+        <v>316.401</v>
+      </c>
+      <c r="AA5">
+        <v>316.6300000000001</v>
+      </c>
+      <c r="AB5">
+        <v>316.515</v>
       </c>
       <c r="AC5" s="2">
-        <v>120.771</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>126.312</v>
+        <v>136.39</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>-105.942</v>
       </c>
       <c r="AE5" s="2">
-        <v>131.359</v>
+        <v>139.902</v>
       </c>
       <c r="AF5" s="2">
-        <v>134.288</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>39.5204</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>2.26075</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>2.16157</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>1.97167</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>1.92867</v>
+        <v>139.237</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>37.7739</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>38.3322</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>2.10436</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>-2.70916</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1.98027</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1.98973</v>
       </c>
       <c r="AM5">
-        <v>7.01106</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>98</v>
+        <v>8.120010000000001</v>
+      </c>
+      <c r="AN5">
+        <v>8.001749999999999</v>
       </c>
       <c r="AO5">
-        <v>50.4072</v>
+        <v>49.9754</v>
       </c>
       <c r="AP5">
-        <v>50.3572</v>
+        <v>49.9664</v>
       </c>
       <c r="AQ5">
-        <v>50.3153</v>
+        <v>50.0329</v>
       </c>
       <c r="AR5">
-        <v>577.904</v>
+        <v>573.418</v>
       </c>
       <c r="AS5">
-        <v>122.85</v>
+        <v>95.0612</v>
       </c>
       <c r="AT5">
-        <v>213.861</v>
+        <v>190.733</v>
       </c>
       <c r="AU5">
-        <v>486.893</v>
+        <v>477.747</v>
       </c>
       <c r="AV5">
-        <v>350.377</v>
+        <v>334.24</v>
       </c>
       <c r="AW5">
-        <v>455.053</v>
+        <v>478.357</v>
       </c>
       <c r="AX5">
-        <v>559.567</v>
+        <v>530.509</v>
       </c>
       <c r="AY5">
-        <v>566.567</v>
+        <v>564.9889999999999</v>
       </c>
       <c r="AZ5">
-        <v>134.906</v>
+        <v>103.25</v>
       </c>
       <c r="BA5">
-        <v>221.238</v>
+        <v>195.598</v>
       </c>
       <c r="BB5">
-        <v>480.235</v>
+        <v>472.641</v>
       </c>
       <c r="BC5">
-        <v>350.736</v>
+        <v>334.1199999999999</v>
       </c>
       <c r="BD5">
-        <v>431.661</v>
+        <v>461.739</v>
       </c>
       <c r="BE5">
-        <v>559.1420000000001</v>
+        <v>529.4979999999999</v>
       </c>
       <c r="BF5">
-        <v>577.75</v>
+        <v>587.855</v>
       </c>
       <c r="BG5">
-        <v>115.95</v>
+        <v>76.6478</v>
       </c>
       <c r="BH5">
-        <v>208.31</v>
+        <v>178.889</v>
       </c>
       <c r="BI5">
-        <v>485.39</v>
+        <v>485.614</v>
       </c>
       <c r="BJ5">
-        <v>346.85</v>
+        <v>332.252</v>
       </c>
       <c r="BK5">
-        <v>461.8</v>
+        <v>511.2069999999999</v>
       </c>
       <c r="BL5">
-        <v>697.356</v>
+        <v>668.208</v>
       </c>
     </row>
     <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
         <v>95</v>
@@ -1797,160 +1790,160 @@
         <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1269.84</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1372.28</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1321.06</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1269.54</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1371.62</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1320.58</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1393.6</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1495.4</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1444.5</v>
+        <v>102</v>
+      </c>
+      <c r="T6">
+        <v>211.148</v>
+      </c>
+      <c r="U6">
+        <v>211.23</v>
+      </c>
+      <c r="V6">
+        <v>211.189</v>
+      </c>
+      <c r="W6">
+        <v>428.564</v>
+      </c>
+      <c r="X6">
+        <v>422.983</v>
+      </c>
+      <c r="Y6">
+        <v>425.773</v>
+      </c>
+      <c r="Z6">
+        <v>330.867</v>
+      </c>
+      <c r="AA6">
+        <v>331.6780000000001</v>
+      </c>
+      <c r="AB6">
+        <v>331.272</v>
       </c>
       <c r="AC6" s="2">
-        <v>522.2510000000001</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>-271.065</v>
+        <v>1227.62</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-1062.76</v>
       </c>
       <c r="AE6" s="2">
-        <v>131.366</v>
+        <v>139.561</v>
       </c>
       <c r="AF6" s="2">
-        <v>135.687</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>39.004</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0.528708</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>-1.01864</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>1.99332</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>1.92984</v>
+        <v>140.543</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>38.1056</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>39.1441</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.243487</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>-0.281256</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>2.07129</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>2.05681</v>
       </c>
       <c r="AM6">
-        <v>7.17055</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>98</v>
+        <v>8.40368</v>
+      </c>
+      <c r="AN6">
+        <v>8.180720000000001</v>
       </c>
       <c r="AO6">
-        <v>50.6093</v>
+        <v>50.0274</v>
       </c>
       <c r="AP6">
-        <v>50.52</v>
+        <v>49.9038</v>
       </c>
       <c r="AQ6">
-        <v>50.4513</v>
+        <v>50.2144</v>
       </c>
       <c r="AR6">
-        <v>582.717</v>
+        <v>585.623</v>
       </c>
       <c r="AS6">
-        <v>122.52</v>
+        <v>87.44290000000001</v>
       </c>
       <c r="AT6">
-        <v>214.559</v>
+        <v>187.079</v>
       </c>
       <c r="AU6">
-        <v>490.678</v>
+        <v>485.987</v>
       </c>
       <c r="AV6">
-        <v>352.618</v>
+        <v>336.533</v>
       </c>
       <c r="AW6">
-        <v>460.198</v>
+        <v>498.18</v>
       </c>
       <c r="AX6">
-        <v>571.018</v>
+        <v>545.8960000000001</v>
       </c>
       <c r="AY6">
-        <v>571.369</v>
+        <v>577.577</v>
       </c>
       <c r="AZ6">
-        <v>134.946</v>
+        <v>95.7927</v>
       </c>
       <c r="BA6">
-        <v>222.23</v>
+        <v>192.15</v>
       </c>
       <c r="BB6">
-        <v>484.085</v>
+        <v>481.22</v>
       </c>
       <c r="BC6">
-        <v>353.158</v>
+        <v>336.685</v>
       </c>
       <c r="BD6">
-        <v>436.424</v>
+        <v>481.785</v>
       </c>
       <c r="BE6">
-        <v>570.6650000000001</v>
+        <v>544.928</v>
       </c>
       <c r="BF6">
-        <v>581.468</v>
+        <v>597.468</v>
       </c>
       <c r="BG6">
-        <v>115.334</v>
+        <v>63.7567</v>
       </c>
       <c r="BH6">
-        <v>208.561</v>
+        <v>170.499</v>
       </c>
       <c r="BI6">
-        <v>488.241</v>
+        <v>490.726</v>
       </c>
       <c r="BJ6">
-        <v>348.401</v>
+        <v>330.613</v>
       </c>
       <c r="BK6">
-        <v>466.134</v>
+        <v>533.712</v>
       </c>
       <c r="BL6">
-        <v>708.361</v>
+        <v>684.5700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -1985,22 +1978,22 @@
         <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
         <v>113</v>
@@ -2011,140 +2004,140 @@
       <c r="S7" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="2">
-        <v>1097.83</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1199.25</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1148.54</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1097.7</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1198.98</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1148.34</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1221.15</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1321.9</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1271.52</v>
+      <c r="T7">
+        <v>114.696</v>
+      </c>
+      <c r="U7">
+        <v>114.636</v>
+      </c>
+      <c r="V7">
+        <v>114.666</v>
+      </c>
+      <c r="W7">
+        <v>113.376</v>
+      </c>
+      <c r="X7">
+        <v>113.327</v>
+      </c>
+      <c r="Y7">
+        <v>113.352</v>
+      </c>
+      <c r="Z7">
+        <v>234.102</v>
+      </c>
+      <c r="AA7">
+        <v>234.114</v>
+      </c>
+      <c r="AB7">
+        <v>234.108</v>
       </c>
       <c r="AC7" s="2">
-        <v>128.143</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>130.747</v>
+        <v>183.355</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>28.3697</v>
       </c>
       <c r="AE7" s="2">
-        <v>133.637</v>
+        <v>141.902</v>
       </c>
       <c r="AF7" s="2">
-        <v>136.116</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>38.1685</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>37.5569</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>2.30037</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>2.25454</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>2.09273</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>2.05462</v>
-      </c>
-      <c r="AM7">
-        <v>7.65145</v>
-      </c>
-      <c r="AN7">
-        <v>7.77605</v>
+        <v>141.187</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>43.7147</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>44.1056</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>2.17752</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>14.0734</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>2.76407</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>2.77806</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>10.1785</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>10.0883</v>
       </c>
       <c r="AO7">
-        <v>50.3556</v>
+        <v>49.9852</v>
       </c>
       <c r="AP7">
-        <v>50.321</v>
+        <v>49.9878</v>
       </c>
       <c r="AQ7">
-        <v>50.1867</v>
+        <v>50.0048</v>
       </c>
       <c r="AR7">
-        <v>641.4929999999999</v>
+        <v>723.997</v>
       </c>
       <c r="AS7">
-        <v>150.2</v>
+        <v>58.5659</v>
       </c>
       <c r="AT7">
-        <v>248.459</v>
+        <v>191.652</v>
       </c>
       <c r="AU7">
-        <v>543.234</v>
+        <v>590.9109999999999</v>
       </c>
       <c r="AV7">
-        <v>395.847</v>
+        <v>391.281</v>
       </c>
       <c r="AW7">
-        <v>491.292</v>
+        <v>665.4309999999999</v>
       </c>
       <c r="AX7">
-        <v>396.9930000000001</v>
+        <v>446.502</v>
       </c>
       <c r="AY7">
-        <v>629.145</v>
+        <v>717.866</v>
       </c>
       <c r="AZ7">
-        <v>163.034</v>
+        <v>64.15479999999999</v>
       </c>
       <c r="BA7">
-        <v>256.256</v>
+        <v>194.897</v>
       </c>
       <c r="BB7">
-        <v>535.923</v>
+        <v>587.124</v>
       </c>
       <c r="BC7">
-        <v>396.09</v>
+        <v>391.011</v>
       </c>
       <c r="BD7">
-        <v>466.11</v>
+        <v>653.712</v>
       </c>
       <c r="BE7">
-        <v>396.582</v>
+        <v>445.793</v>
       </c>
       <c r="BF7">
-        <v>637.5549999999999</v>
+        <v>760.651</v>
       </c>
       <c r="BG7">
-        <v>150.814</v>
+        <v>19.0699</v>
       </c>
       <c r="BH7">
-        <v>248.162</v>
+        <v>167.386</v>
       </c>
       <c r="BI7">
-        <v>540.207</v>
+        <v>612.3349999999999</v>
       </c>
       <c r="BJ7">
-        <v>394.184</v>
+        <v>389.86</v>
       </c>
       <c r="BK7">
-        <v>486.74</v>
+        <v>741.581</v>
       </c>
       <c r="BL7">
-        <v>533.629</v>
+        <v>589.5839999999999</v>
       </c>
     </row>
     <row r="8" spans="1:64">
@@ -2185,16 +2178,16 @@
         <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
         <v>113</v>
@@ -2205,140 +2198,140 @@
       <c r="S8" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="2">
-        <v>1094.42</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1195.99</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1145.21</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1094.34</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1195.76</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1145.05</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1217.61</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1318.43</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1268.02</v>
+      <c r="T8">
+        <v>111.47</v>
+      </c>
+      <c r="U8">
+        <v>111.619</v>
+      </c>
+      <c r="V8">
+        <v>111.544</v>
+      </c>
+      <c r="W8">
+        <v>110.394</v>
+      </c>
+      <c r="X8">
+        <v>110.415</v>
+      </c>
+      <c r="Y8">
+        <v>110.404</v>
+      </c>
+      <c r="Z8">
+        <v>230.804</v>
+      </c>
+      <c r="AA8">
+        <v>231.102</v>
+      </c>
+      <c r="AB8">
+        <v>230.953</v>
       </c>
       <c r="AC8" s="2">
-        <v>128.514</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>131.287</v>
+        <v>181.601</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>28.5719</v>
       </c>
       <c r="AE8" s="2">
-        <v>133.879</v>
+        <v>141.817</v>
       </c>
       <c r="AF8" s="2">
-        <v>136.51</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>38.4634</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>37.8488</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>2.37764</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>2.32742</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>2.16792</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>2.12614</v>
-      </c>
-      <c r="AM8">
-        <v>7.98184</v>
-      </c>
-      <c r="AN8">
-        <v>8.111459999999999</v>
+        <v>141.977</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>45.5889</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>46.08770000000001</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>2.31213</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>14.6957</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>2.92531</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>2.92202</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>10.4153</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>10.3026</v>
       </c>
       <c r="AO8">
-        <v>50.3924</v>
+        <v>50.0367</v>
       </c>
       <c r="AP8">
-        <v>50.3539</v>
+        <v>50.005</v>
       </c>
       <c r="AQ8">
-        <v>50.206</v>
+        <v>50.0744</v>
       </c>
       <c r="AR8">
-        <v>649.7669999999999</v>
+        <v>742.6049999999999</v>
       </c>
       <c r="AS8">
-        <v>140.501</v>
+        <v>42.7968</v>
       </c>
       <c r="AT8">
-        <v>242.354</v>
+        <v>182.758</v>
       </c>
       <c r="AU8">
-        <v>547.913</v>
+        <v>602.643</v>
       </c>
       <c r="AV8">
-        <v>395.134</v>
+        <v>392.701</v>
       </c>
       <c r="AW8">
-        <v>509.266</v>
+        <v>699.808</v>
       </c>
       <c r="AX8">
-        <v>393.499</v>
+        <v>443.083</v>
       </c>
       <c r="AY8">
-        <v>637.3299999999999</v>
+        <v>738.3499999999999</v>
       </c>
       <c r="AZ8">
-        <v>153.598</v>
+        <v>46.9178</v>
       </c>
       <c r="BA8">
-        <v>250.345</v>
+        <v>185.204</v>
       </c>
       <c r="BB8">
-        <v>540.5839999999999</v>
+        <v>600.0640000000001</v>
       </c>
       <c r="BC8">
-        <v>395.464</v>
+        <v>392.634</v>
       </c>
       <c r="BD8">
-        <v>483.732</v>
+        <v>691.432</v>
       </c>
       <c r="BE8">
-        <v>393.169</v>
+        <v>442.451</v>
       </c>
       <c r="BF8">
-        <v>649.199</v>
+        <v>784.811</v>
       </c>
       <c r="BG8">
-        <v>137.517</v>
+        <v>-6.56153</v>
       </c>
       <c r="BH8">
-        <v>239.854</v>
+        <v>151.713</v>
       </c>
       <c r="BI8">
-        <v>546.862</v>
+        <v>626.537</v>
       </c>
       <c r="BJ8">
-        <v>393.358</v>
+        <v>389.125</v>
       </c>
       <c r="BK8">
-        <v>511.681</v>
+        <v>791.3729999999999</v>
       </c>
       <c r="BL8">
-        <v>530.741</v>
+        <v>587.904</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2373,166 +2366,166 @@
         <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
         <v>113</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1108.03</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1209.55</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1158.79</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1107.87</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1209.23</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1158.55</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1231.38</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1332.2</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1281.79</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>127.764</v>
+        <v>78</v>
+      </c>
+      <c r="T9">
+        <v>132.008</v>
+      </c>
+      <c r="U9">
+        <v>131.934</v>
+      </c>
+      <c r="V9">
+        <v>131.971</v>
+      </c>
+      <c r="W9">
+        <v>130.558</v>
+      </c>
+      <c r="X9">
+        <v>130.504</v>
+      </c>
+      <c r="Y9">
+        <v>130.531</v>
+      </c>
+      <c r="Z9">
+        <v>251.489</v>
+      </c>
+      <c r="AA9">
+        <v>251.478</v>
+      </c>
+      <c r="AB9">
+        <v>251.484</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>-134.791</v>
       </c>
       <c r="AD9" s="2">
-        <v>130.672</v>
+        <v>185.027</v>
       </c>
       <c r="AE9" s="2">
-        <v>133.452</v>
+        <v>141.747</v>
       </c>
       <c r="AF9" s="2">
-        <v>136.142</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>38.2884</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>37.6579</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>2.07827</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>2.03201</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>1.888</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>1.8507</v>
+        <v>141.042</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>42.2983</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>42.64850000000001</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>-2.45356</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1.7874</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>2.2833</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>2.29471</v>
       </c>
       <c r="AM9">
-        <v>6.8954</v>
+        <v>8.60463</v>
       </c>
       <c r="AN9">
-        <v>7.01084</v>
+        <v>8.53398</v>
       </c>
       <c r="AO9">
-        <v>50.3811</v>
+        <v>49.9803</v>
       </c>
       <c r="AP9">
-        <v>50.3384</v>
+        <v>49.9851</v>
       </c>
       <c r="AQ9">
-        <v>50.2041</v>
+        <v>49.9981</v>
       </c>
       <c r="AR9">
-        <v>574.628</v>
+        <v>610.8820000000001</v>
       </c>
       <c r="AS9">
-        <v>132.082</v>
+        <v>59.6865</v>
       </c>
       <c r="AT9">
-        <v>220.591</v>
+        <v>169.926</v>
       </c>
       <c r="AU9">
-        <v>486.119</v>
+        <v>500.6429999999999</v>
       </c>
       <c r="AV9">
-        <v>353.355</v>
+        <v>335.284</v>
       </c>
       <c r="AW9">
-        <v>442.546</v>
+        <v>551.1949999999999</v>
       </c>
       <c r="AX9">
-        <v>407.436</v>
+        <v>464.332</v>
       </c>
       <c r="AY9">
-        <v>563.582</v>
+        <v>604.793</v>
       </c>
       <c r="AZ9">
-        <v>143.652</v>
+        <v>65.3754</v>
       </c>
       <c r="BA9">
-        <v>227.638</v>
+        <v>173.259</v>
       </c>
       <c r="BB9">
-        <v>479.596</v>
+        <v>496.909</v>
       </c>
       <c r="BC9">
-        <v>353.617</v>
+        <v>335.084</v>
       </c>
       <c r="BD9">
-        <v>419.929</v>
+        <v>539.4179999999999</v>
       </c>
       <c r="BE9">
-        <v>407.005</v>
+        <v>463.569</v>
       </c>
       <c r="BF9">
-        <v>571.7769999999999</v>
+        <v>637.405</v>
       </c>
       <c r="BG9">
-        <v>131.754</v>
+        <v>30.8019</v>
       </c>
       <c r="BH9">
-        <v>219.759</v>
+        <v>152.122</v>
       </c>
       <c r="BI9">
-        <v>483.773</v>
+        <v>516.0839999999999</v>
       </c>
       <c r="BJ9">
-        <v>351.766</v>
+        <v>334.103</v>
       </c>
       <c r="BK9">
-        <v>440.023</v>
+        <v>606.603</v>
       </c>
       <c r="BL9">
-        <v>544.2</v>
+        <v>606.08</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2573,16 +2566,16 @@
         <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q10" t="s">
         <v>113</v>
@@ -2593,140 +2586,140 @@
       <c r="S10" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="2">
-        <v>1107.37</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1209.13</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1158.25</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1107.29</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1208.88</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1158.09</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1230.58</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1331.52</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1281.05</v>
+      <c r="T10">
+        <v>133.701</v>
+      </c>
+      <c r="U10">
+        <v>133.882</v>
+      </c>
+      <c r="V10">
+        <v>133.791</v>
+      </c>
+      <c r="W10">
+        <v>341.349</v>
+      </c>
+      <c r="X10">
+        <v>132.442</v>
+      </c>
+      <c r="Y10">
+        <v>236.895</v>
+      </c>
+      <c r="Z10">
+        <v>253.022</v>
+      </c>
+      <c r="AA10">
+        <v>253.435</v>
+      </c>
+      <c r="AB10">
+        <v>253.229</v>
       </c>
       <c r="AC10" s="2">
-        <v>128.296</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>131.459</v>
+        <v>184.225</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>29.7798</v>
       </c>
       <c r="AE10" s="2">
-        <v>133.696</v>
+        <v>141.576</v>
       </c>
       <c r="AF10" s="2">
-        <v>136.631</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>38.2554</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>37.6129</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>2.11641</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>2.06548</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>1.92845</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>1.88702</v>
+        <v>141.981</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>43.8442</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>44.4241</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1.88658</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>11.6708</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>2.41347</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>2.40659</v>
       </c>
       <c r="AM10">
-        <v>7.08759</v>
+        <v>8.829050000000001</v>
       </c>
       <c r="AN10">
-        <v>7.20866</v>
+        <v>8.71381</v>
       </c>
       <c r="AO10">
-        <v>50.4415</v>
+        <v>50.0396</v>
       </c>
       <c r="AP10">
-        <v>50.3956</v>
+        <v>49.9813</v>
       </c>
       <c r="AQ10">
-        <v>50.235</v>
+        <v>50.0995</v>
       </c>
       <c r="AR10">
-        <v>579.289</v>
+        <v>626.3389999999999</v>
       </c>
       <c r="AS10">
-        <v>126.745</v>
+        <v>47.0821</v>
       </c>
       <c r="AT10">
-        <v>217.254</v>
+        <v>162.934</v>
       </c>
       <c r="AU10">
-        <v>488.78</v>
+        <v>510.4880000000001</v>
       </c>
       <c r="AV10">
-        <v>353.017</v>
+        <v>336.711</v>
       </c>
       <c r="AW10">
-        <v>452.544</v>
+        <v>579.2570000000001</v>
       </c>
       <c r="AX10">
-        <v>407.003</v>
+        <v>466.035</v>
       </c>
       <c r="AY10">
-        <v>568.215</v>
+        <v>621.514</v>
       </c>
       <c r="AZ10">
-        <v>138.506</v>
+        <v>52.0305</v>
       </c>
       <c r="BA10">
-        <v>224.448</v>
+        <v>165.927</v>
       </c>
       <c r="BB10">
-        <v>482.273</v>
+        <v>507.617</v>
       </c>
       <c r="BC10">
-        <v>353.361</v>
+        <v>336.772</v>
       </c>
       <c r="BD10">
-        <v>429.709</v>
+        <v>569.4829999999999</v>
       </c>
       <c r="BE10">
-        <v>406.612</v>
+        <v>465.342</v>
       </c>
       <c r="BF10">
-        <v>577.2199999999999</v>
+        <v>655.6189999999999</v>
       </c>
       <c r="BG10">
-        <v>125.323</v>
+        <v>10.4473</v>
       </c>
       <c r="BH10">
-        <v>215.703</v>
+        <v>139.482</v>
       </c>
       <c r="BI10">
-        <v>486.841</v>
+        <v>526.5849999999999</v>
       </c>
       <c r="BJ10">
-        <v>351.272</v>
+        <v>333.033</v>
       </c>
       <c r="BK10">
-        <v>451.897</v>
+        <v>645.1719999999999</v>
       </c>
       <c r="BL10">
-        <v>544</v>
+        <v>609.438</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2927,280 +2920,280 @@
       <c r="S12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T12" s="2">
-        <v>1094.42</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1195.99</v>
-      </c>
-      <c r="V12" s="2">
-        <v>1145.21</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1094.34</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1195.76</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>1145.05</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1217.61</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>1318.43</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1268.02</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>120.771</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>-271.065</v>
+      <c r="T12" s="1">
+        <v>111.47</v>
+      </c>
+      <c r="U12" s="1">
+        <v>111.619</v>
+      </c>
+      <c r="V12" s="1">
+        <v>111.544</v>
+      </c>
+      <c r="W12" s="1">
+        <v>110.394</v>
+      </c>
+      <c r="X12" s="1">
+        <v>110.415</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>110.404</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>230.804</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>231.102</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>230.953</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>-134.791</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-1062.76</v>
       </c>
       <c r="AE12" s="2">
-        <v>131.359</v>
+        <v>139.561</v>
       </c>
       <c r="AF12" s="2">
-        <v>134.288</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>38.1685</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>37.5569</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0.528708</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>-1.01864</v>
-      </c>
-      <c r="AK12" s="4">
-        <v>1.888</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>1.8507</v>
+        <v>139.237</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>37.7739</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>38.3322</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>-3.36176</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>-2.70916</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1.98027</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1.98973</v>
       </c>
       <c r="AM12" s="1">
-        <v>6.8954</v>
+        <v>8.120010000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>7.01084</v>
+        <v>8.001749999999999</v>
       </c>
       <c r="AO12" s="1">
-        <v>50.3556</v>
+        <v>49.9754</v>
       </c>
       <c r="AP12" s="1">
-        <v>50.321</v>
+        <v>49.9038</v>
       </c>
       <c r="AQ12" s="1">
-        <v>50.1867</v>
+        <v>49.9981</v>
       </c>
       <c r="AR12" s="1">
-        <v>574.628</v>
+        <v>573.418</v>
       </c>
       <c r="AS12" s="1">
-        <v>122.52</v>
+        <v>42.7968</v>
       </c>
       <c r="AT12" s="1">
-        <v>213.861</v>
+        <v>162.934</v>
       </c>
       <c r="AU12" s="1">
-        <v>486.119</v>
+        <v>477.747</v>
       </c>
       <c r="AV12" s="1">
-        <v>350.377</v>
+        <v>334.24</v>
       </c>
       <c r="AW12" s="1">
-        <v>442.546</v>
+        <v>478.357</v>
       </c>
       <c r="AX12" s="1">
-        <v>393.499</v>
+        <v>443.083</v>
       </c>
       <c r="AY12" s="1">
-        <v>563.582</v>
+        <v>564.9889999999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>134.906</v>
+        <v>46.9178</v>
       </c>
       <c r="BA12" s="1">
-        <v>221.238</v>
+        <v>165.927</v>
       </c>
       <c r="BB12" s="1">
-        <v>479.596</v>
+        <v>472.641</v>
       </c>
       <c r="BC12" s="1">
-        <v>350.736</v>
+        <v>334.1199999999999</v>
       </c>
       <c r="BD12" s="1">
-        <v>419.929</v>
+        <v>461.739</v>
       </c>
       <c r="BE12" s="1">
-        <v>393.169</v>
+        <v>442.451</v>
       </c>
       <c r="BF12" s="1">
-        <v>571.7769999999999</v>
+        <v>587.855</v>
       </c>
       <c r="BG12" s="1">
-        <v>115.334</v>
+        <v>-6.56153</v>
       </c>
       <c r="BH12" s="1">
-        <v>208.31</v>
+        <v>139.482</v>
       </c>
       <c r="BI12" s="1">
-        <v>483.773</v>
+        <v>485.614</v>
       </c>
       <c r="BJ12" s="1">
-        <v>346.85</v>
+        <v>330.613</v>
       </c>
       <c r="BK12" s="1">
-        <v>440.023</v>
+        <v>511.2069999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>530.741</v>
+        <v>587.904</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T13" s="2">
-        <v>1269.84</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1372.28</v>
-      </c>
-      <c r="V13" s="2">
-        <v>1321.06</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1269.54</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1371.62</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1320.58</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>1393.6</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>1495.4</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>1444.5</v>
+      <c r="T13" s="1">
+        <v>211.148</v>
+      </c>
+      <c r="U13" s="1">
+        <v>211.23</v>
+      </c>
+      <c r="V13" s="1">
+        <v>211.189</v>
+      </c>
+      <c r="W13" s="1">
+        <v>428.564</v>
+      </c>
+      <c r="X13" s="1">
+        <v>422.983</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>425.773</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>330.867</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>331.6780000000001</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>331.272</v>
       </c>
       <c r="AC13" s="2">
-        <v>522.2510000000001</v>
+        <v>1227.62</v>
       </c>
       <c r="AD13" s="2">
-        <v>131.459</v>
+        <v>185.953</v>
       </c>
       <c r="AE13" s="2">
-        <v>133.879</v>
+        <v>141.902</v>
       </c>
       <c r="AF13" s="2">
-        <v>136.631</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>39.5204</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>38.8692</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>2.49836</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>2.41429</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>2.22775</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>2.1712</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>8.030670000000001</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>8.111459999999999</v>
+        <v>141.981</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>45.5889</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>46.08770000000001</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>2.31213</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>14.6957</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>2.92531</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>2.92202</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>10.4153</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>10.3026</v>
       </c>
       <c r="AO13" s="1">
-        <v>50.6093</v>
+        <v>50.0396</v>
       </c>
       <c r="AP13" s="1">
-        <v>50.52</v>
+        <v>50.005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50.4513</v>
+        <v>50.2144</v>
       </c>
       <c r="AR13" s="1">
-        <v>653</v>
+        <v>742.6049999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>150.2</v>
+        <v>95.0612</v>
       </c>
       <c r="AT13" s="1">
-        <v>248.459</v>
+        <v>212.131</v>
       </c>
       <c r="AU13" s="1">
-        <v>549.6189999999999</v>
+        <v>602.643</v>
       </c>
       <c r="AV13" s="1">
-        <v>395.847</v>
+        <v>392.701</v>
       </c>
       <c r="AW13" s="1">
-        <v>516.908</v>
+        <v>699.808</v>
       </c>
       <c r="AX13" s="1">
-        <v>571.018</v>
+        <v>545.8960000000001</v>
       </c>
       <c r="AY13" s="1">
-        <v>640.398</v>
+        <v>738.3499999999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>163.034</v>
+        <v>103.25</v>
       </c>
       <c r="BA13" s="1">
-        <v>256.256</v>
+        <v>217.208</v>
       </c>
       <c r="BB13" s="1">
-        <v>542.25</v>
+        <v>600.0640000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>396.09</v>
+        <v>392.634</v>
       </c>
       <c r="BD13" s="1">
-        <v>490.743</v>
+        <v>691.432</v>
       </c>
       <c r="BE13" s="1">
-        <v>570.6650000000001</v>
+        <v>544.928</v>
       </c>
       <c r="BF13" s="1">
-        <v>653.303</v>
+        <v>784.811</v>
       </c>
       <c r="BG13" s="1">
-        <v>150.814</v>
+        <v>76.6478</v>
       </c>
       <c r="BH13" s="1">
-        <v>248.162</v>
+        <v>193.585</v>
       </c>
       <c r="BI13" s="1">
-        <v>548.617</v>
+        <v>626.537</v>
       </c>
       <c r="BJ13" s="1">
-        <v>394.184</v>
+        <v>389.86</v>
       </c>
       <c r="BK13" s="1">
-        <v>523.429</v>
+        <v>791.3729999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>708.361</v>
+        <v>684.5700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
@@ -3462,139 +3455,139 @@
         <v>125</v>
       </c>
       <c r="T18" s="1">
-        <v>1158.793333333334</v>
+        <v>150.7813333333334</v>
       </c>
       <c r="U18" s="1">
-        <v>1260.516666666667</v>
+        <v>150.8684444444444</v>
       </c>
       <c r="V18" s="1">
-        <v>1209.653333333333</v>
+        <v>150.8246666666667</v>
       </c>
       <c r="W18" s="1">
-        <v>1158.597777777778</v>
+        <v>292.0092222222223</v>
       </c>
       <c r="X18" s="1">
-        <v>1260.122222222222</v>
+        <v>220.4246666666667</v>
       </c>
       <c r="Y18" s="1">
-        <v>1209.358888888889</v>
+        <v>256.2166666666667</v>
       </c>
       <c r="Z18" s="1">
-        <v>1282.325555555556</v>
+        <v>270.3726666666667</v>
       </c>
       <c r="AA18" s="1">
-        <v>1383.404444444445</v>
+        <v>270.7014444444445</v>
       </c>
       <c r="AB18" s="1">
-        <v>1332.864444444444</v>
+        <v>270.537</v>
       </c>
       <c r="AC18" s="1">
-        <v>169.9908888888889</v>
+        <v>275.7383333333333</v>
       </c>
       <c r="AD18" s="1">
-        <v>85.10122222222223</v>
+        <v>-142.9946222222222</v>
       </c>
       <c r="AE18" s="1">
-        <v>132.7282222222222</v>
+        <v>140.8807777777778</v>
       </c>
       <c r="AF18" s="1">
-        <v>135.7336666666667</v>
+        <v>140.7897777777778</v>
       </c>
       <c r="AG18" s="1">
-        <v>38.72807777777777</v>
+        <v>41.57308888888889</v>
       </c>
       <c r="AH18" s="1">
-        <v>37.92796666666667</v>
+        <v>42.17250000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>2.107450888888889</v>
+        <v>0.5431385555555556</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1.87701</v>
+        <v>4.287186000000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.063577777777778</v>
+        <v>2.448102222222222</v>
       </c>
       <c r="AL18" s="1">
-        <v>2.01791</v>
+        <v>2.449754444444444</v>
       </c>
       <c r="AM18" s="1">
-        <v>7.485653333333333</v>
+        <v>9.327588888888888</v>
       </c>
       <c r="AN18" s="1">
-        <v>7.636975000000001</v>
+        <v>9.194604444444444</v>
       </c>
       <c r="AO18" s="1">
-        <v>50.4312</v>
+        <v>50.0112</v>
       </c>
       <c r="AP18" s="1">
-        <v>50.38071111111111</v>
+        <v>49.97456666666666</v>
       </c>
       <c r="AQ18" s="1">
-        <v>50.26992222222222</v>
+        <v>50.07442222222222</v>
       </c>
       <c r="AR18" s="1">
-        <v>614.9711111111111</v>
+        <v>658.9659999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>133.9942222222222</v>
+        <v>70.36298888888888</v>
       </c>
       <c r="AT18" s="1">
-        <v>230.1895555555556</v>
+        <v>188.0836666666667</v>
       </c>
       <c r="AU18" s="1">
-        <v>518.7755555555555</v>
+        <v>541.2454444444444</v>
       </c>
       <c r="AV18" s="1">
-        <v>374.4826666666666</v>
+        <v>364.6644444444444</v>
       </c>
       <c r="AW18" s="1">
-        <v>480.9767777777778</v>
+        <v>588.603</v>
       </c>
       <c r="AX18" s="1">
-        <v>458.9136666666666</v>
+        <v>483.7721111111111</v>
       </c>
       <c r="AY18" s="1">
-        <v>603.0877777777779</v>
+        <v>652.1366666666665</v>
       </c>
       <c r="AZ18" s="1">
-        <v>146.6123333333334</v>
+        <v>77.05033333333333</v>
       </c>
       <c r="BA18" s="1">
-        <v>237.9074444444444</v>
+        <v>192.0675555555555</v>
       </c>
       <c r="BB18" s="1">
-        <v>511.7928888888889</v>
+        <v>537.1192222222221</v>
       </c>
       <c r="BC18" s="1">
-        <v>374.8502222222222</v>
+        <v>364.5935555555555</v>
       </c>
       <c r="BD18" s="1">
-        <v>456.4754444444445</v>
+        <v>575.0864444444444</v>
       </c>
       <c r="BE18" s="1">
-        <v>458.5098888888889</v>
+        <v>482.9590000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>613.4928888888888</v>
+        <v>685.7343333333333</v>
       </c>
       <c r="BG18" s="1">
-        <v>130.2842222222222</v>
+        <v>37.34856333333333</v>
       </c>
       <c r="BH18" s="1">
-        <v>226.9261111111111</v>
+        <v>167.0256666666667</v>
       </c>
       <c r="BI18" s="1">
-        <v>516.8512222222222</v>
+        <v>556.0574444444444</v>
       </c>
       <c r="BJ18" s="1">
-        <v>371.8885555555555</v>
+        <v>361.5415555555555</v>
       </c>
       <c r="BK18" s="1">
-        <v>483.2083333333333</v>
+        <v>648.3858888888888</v>
       </c>
       <c r="BL18" s="1">
-        <v>596.0906666666666</v>
+        <v>625.1444444444445</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
@@ -3602,139 +3595,139 @@
         <v>126</v>
       </c>
       <c r="T19" s="1">
-        <v>69.99211495272566</v>
+        <v>32.39118745722189</v>
       </c>
       <c r="U19" s="1">
-        <v>70.2005419415612</v>
+        <v>32.39694974706077</v>
       </c>
       <c r="V19" s="1">
-        <v>70.09482085797146</v>
+        <v>32.39405621063496</v>
       </c>
       <c r="W19" s="1">
-        <v>69.92684205300687</v>
+        <v>125.7091918859448</v>
       </c>
       <c r="X19" s="1">
-        <v>70.0836946923348</v>
+        <v>128.2990989342222</v>
       </c>
       <c r="Y19" s="1">
-        <v>70.00371108328535</v>
+        <v>117.0006331283914</v>
       </c>
       <c r="Z19" s="1">
-        <v>70.21436401179071</v>
+        <v>32.58461392197925</v>
       </c>
       <c r="AA19" s="1">
-        <v>70.4785497881938</v>
+        <v>32.73423408506458</v>
       </c>
       <c r="AB19" s="1">
-        <v>70.34674328892581</v>
+        <v>32.65901214400433</v>
       </c>
       <c r="AC19" s="1">
-        <v>124.5688998822601</v>
+        <v>383.3913519957266</v>
       </c>
       <c r="AD19" s="1">
-        <v>125.9349050385227</v>
+        <v>364.2099128998208</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.964651206715298</v>
+        <v>0.8732097594224578</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.7350088434842146</v>
+        <v>0.9029313715495778</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.4719291467012534</v>
+        <v>2.500180375468248</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.44924791101969</v>
+        <v>2.394793986964224</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.5745855854301418</v>
+        <v>1.969689677289581</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1.031593714405046</v>
+        <v>6.686519691715331</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.1172554048768734</v>
+        <v>0.2880956909229901</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.1154931112904815</v>
+        <v>0.2887856989807536</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.4241849126134603</v>
+        <v>0.8004122272435543</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.4017635932464926</v>
+        <v>0.804899782472757</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.07259266874523447</v>
+        <v>0.02588813542060508</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.05782251473151844</v>
+        <v>0.02684072361998675</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.07635405508809048</v>
+        <v>0.06464140018040967</v>
       </c>
       <c r="AR19" s="1">
-        <v>33.31189153188539</v>
+        <v>58.12383617568418</v>
       </c>
       <c r="AS19" s="1">
-        <v>8.475114129389217</v>
+        <v>18.53119434517822</v>
       </c>
       <c r="AT19" s="1">
-        <v>12.70927159475065</v>
+        <v>14.45260753866466</v>
       </c>
       <c r="AU19" s="1">
-        <v>28.0040775051345</v>
+        <v>45.05388648943029</v>
       </c>
       <c r="AV19" s="1">
-        <v>20.16390215211331</v>
+        <v>26.50019800391904</v>
       </c>
       <c r="AW19" s="1">
-        <v>27.14244954465148</v>
+        <v>68.07701317870323</v>
       </c>
       <c r="AX19" s="1">
-        <v>70.47114701776891</v>
+        <v>33.39009695651441</v>
       </c>
       <c r="AY19" s="1">
-        <v>32.68405542556994</v>
+        <v>58.67251353061329</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.865966237998734</v>
+        <v>20.0727994427506</v>
       </c>
       <c r="BA19" s="1">
-        <v>13.01987285405668</v>
+        <v>15.11169912581427</v>
       </c>
       <c r="BB19" s="1">
-        <v>27.62795913339497</v>
+        <v>45.30017879723798</v>
       </c>
       <c r="BC19" s="1">
-        <v>20.15464148239681</v>
+        <v>26.45929161355908</v>
       </c>
       <c r="BD19" s="1">
-        <v>25.86282552713284</v>
+        <v>69.9312296587172</v>
       </c>
       <c r="BE19" s="1">
-        <v>70.48340990686225</v>
+        <v>33.2751684193083</v>
       </c>
       <c r="BF19" s="1">
-        <v>33.67098632500637</v>
+        <v>65.94336638527203</v>
       </c>
       <c r="BG19" s="1">
-        <v>10.32725871745663</v>
+        <v>25.87076705435178</v>
       </c>
       <c r="BH19" s="1">
-        <v>13.45753700797392</v>
+        <v>15.87896219670682</v>
       </c>
       <c r="BI19" s="1">
-        <v>28.23737015130354</v>
+        <v>49.59522648201608</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.38523517489563</v>
+        <v>26.59591053823923</v>
       </c>
       <c r="BK19" s="1">
-        <v>28.60942213094608</v>
+        <v>84.88969792284632</v>
       </c>
       <c r="BL19" s="1">
-        <v>70.71831466694702</v>
+        <v>31.39405375442622</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
@@ -3742,139 +3735,139 @@
         <v>127</v>
       </c>
       <c r="T20" s="1">
-        <v>6.040086091226417</v>
+        <v>21.48222644086484</v>
       </c>
       <c r="U20" s="1">
-        <v>5.56918792094997</v>
+        <v>21.4736420636925</v>
       </c>
       <c r="V20" s="1">
-        <v>5.794620568259621</v>
+        <v>21.47795644211709</v>
       </c>
       <c r="W20" s="1">
-        <v>6.035471791351823</v>
+        <v>43.04973347392388</v>
       </c>
       <c r="X20" s="1">
-        <v>5.561658500771648</v>
+        <v>58.20541814779752</v>
       </c>
       <c r="Y20" s="1">
-        <v>5.788497668182022</v>
+        <v>45.66472378653148</v>
       </c>
       <c r="Z20" s="1">
-        <v>5.475548990472313</v>
+        <v>12.051741148136</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.094573034749573</v>
+        <v>12.09237510802517</v>
       </c>
       <c r="AB20" s="1">
-        <v>5.277861794733917</v>
+        <v>12.07192071472824</v>
       </c>
       <c r="AC20" s="1">
-        <v>73.27975087163765</v>
+        <v>139.0417311082584</v>
       </c>
       <c r="AD20" s="1">
-        <v>147.9824869138456</v>
+        <v>254.7018253132742</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.7267868058235695</v>
+        <v>0.6198217905922123</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.5415081324585755</v>
+        <v>0.6413330469025686</v>
       </c>
       <c r="AG20" s="1">
-        <v>1.21857105691945</v>
+        <v>6.01393940717372</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.184476655360793</v>
+        <v>5.678567756154422</v>
       </c>
       <c r="AI20" s="1">
-        <v>27.2644828147374</v>
+        <v>362.6495775603448</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54.95941494211783</v>
+        <v>155.9652343452169</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.682141285856606</v>
+        <v>11.76812341853423</v>
       </c>
       <c r="AL20" s="1">
-        <v>5.72340249517974</v>
+        <v>11.78835289535497</v>
       </c>
       <c r="AM20" s="1">
-        <v>5.666638484640758</v>
+        <v>8.581126771110302</v>
       </c>
       <c r="AN20" s="1">
-        <v>5.260768736921262</v>
+        <v>8.754044693669154</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.1439439647385636</v>
+        <v>0.05176467555388609</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.1147711365248398</v>
+        <v>0.05370876709950478</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.151888150434292</v>
+        <v>0.1290906560909311</v>
       </c>
       <c r="AR20" s="1">
-        <v>5.41682217750009</v>
+        <v>8.820460566354591</v>
       </c>
       <c r="AS20" s="1">
-        <v>6.324984755934995</v>
+        <v>26.33656505757747</v>
       </c>
       <c r="AT20" s="1">
-        <v>5.521219919851363</v>
+        <v>7.68413748774818</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.398110455521561</v>
+        <v>8.324113755022061</v>
       </c>
       <c r="AV20" s="1">
-        <v>5.384468747671449</v>
+        <v>7.26700900173893</v>
       </c>
       <c r="AW20" s="1">
-        <v>5.6431933512582</v>
+        <v>11.56586241978095</v>
       </c>
       <c r="AX20" s="1">
-        <v>15.35607939716379</v>
+        <v>6.902030148001956</v>
       </c>
       <c r="AY20" s="1">
-        <v>5.419452462791106</v>
+        <v>8.996965901413297</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.047217199552606</v>
+        <v>26.05154134234842</v>
       </c>
       <c r="BA20" s="1">
-        <v>5.472663070489605</v>
+        <v>7.867908289926256</v>
       </c>
       <c r="BB20" s="1">
-        <v>5.398269443206948</v>
+        <v>8.433915027248078</v>
       </c>
       <c r="BC20" s="1">
-        <v>5.376718563194168</v>
+        <v>7.257202221592012</v>
       </c>
       <c r="BD20" s="1">
-        <v>5.665764904092334</v>
+        <v>12.16012485327722</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.37227693772654</v>
+        <v>6.889853676876981</v>
       </c>
       <c r="BF20" s="1">
-        <v>5.488406945676042</v>
+        <v>9.616459783298785</v>
       </c>
       <c r="BG20" s="1">
-        <v>7.926714794245543</v>
+        <v>69.26843965444395</v>
       </c>
       <c r="BH20" s="1">
-        <v>5.930360742569915</v>
+        <v>9.50689945659459</v>
       </c>
       <c r="BI20" s="1">
-        <v>5.463345917979232</v>
+        <v>8.919083266939541</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.481544099802322</v>
+        <v>7.356252726570022</v>
       </c>
       <c r="BK20" s="1">
-        <v>5.920722006921668</v>
+        <v>13.09246536322963</v>
       </c>
       <c r="BL20" s="1">
-        <v>11.86368427179093</v>
+        <v>5.021887986595737</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>

--- a/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_quadfreq_post_termination_tsmc2ff_meas.xlsx
@@ -1035,139 +1035,139 @@
         <v>78</v>
       </c>
       <c r="T2">
-        <v>140.475</v>
+        <v>146.636</v>
       </c>
       <c r="U2">
-        <v>140.632</v>
+        <v>146.795</v>
       </c>
       <c r="V2">
-        <v>140.553</v>
+        <v>146.716</v>
       </c>
       <c r="W2">
-        <v>350.448</v>
+        <v>146.973</v>
       </c>
       <c r="X2">
-        <v>139.165</v>
+        <v>147.138</v>
       </c>
       <c r="Y2">
-        <v>244.806</v>
+        <v>147.055</v>
       </c>
       <c r="Z2">
-        <v>259.944</v>
+        <v>274.098</v>
       </c>
       <c r="AA2">
-        <v>260.314</v>
+        <v>274.232</v>
       </c>
       <c r="AB2">
-        <v>260.129</v>
+        <v>274.165</v>
       </c>
       <c r="AC2" s="2">
-        <v>514.6930000000001</v>
+        <v>92.1223</v>
       </c>
       <c r="AD2" s="3">
-        <v>-289.213</v>
+        <v>-150.684</v>
       </c>
       <c r="AE2" s="2">
-        <v>141.058</v>
+        <v>106.712</v>
       </c>
       <c r="AF2" s="2">
-        <v>141.124</v>
+        <v>107.484</v>
       </c>
       <c r="AG2" s="4">
-        <v>41.9469</v>
+        <v>45.09140000000001</v>
       </c>
       <c r="AH2" s="4">
-        <v>42.54750000000001</v>
+        <v>45.2619</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.70941</v>
+        <v>3.74879</v>
       </c>
       <c r="AJ2" s="3">
-        <v>-1.26249</v>
+        <v>-2.29187</v>
       </c>
       <c r="AK2" s="3">
-        <v>2.53086</v>
+        <v>3.11099</v>
       </c>
       <c r="AL2" s="3">
-        <v>2.52968</v>
+        <v>3.08865</v>
       </c>
       <c r="AM2">
-        <v>9.588279999999999</v>
+        <v>8.77323</v>
       </c>
       <c r="AN2">
-        <v>9.45294</v>
+        <v>8.740170000000001</v>
       </c>
       <c r="AO2">
-        <v>50.0277</v>
+        <v>50.029</v>
       </c>
       <c r="AP2">
-        <v>49.9842</v>
+        <v>50.031</v>
       </c>
       <c r="AQ2">
-        <v>50.0842</v>
+        <v>50.0236</v>
       </c>
       <c r="AR2">
-        <v>677.443</v>
+        <v>660.616</v>
       </c>
       <c r="AS2">
-        <v>68.89660000000001</v>
+        <v>85.03660000000001</v>
       </c>
       <c r="AT2">
-        <v>190.606</v>
+        <v>200.152</v>
       </c>
       <c r="AU2">
-        <v>555.7339999999999</v>
+        <v>545.5</v>
       </c>
       <c r="AV2">
-        <v>373.17</v>
+        <v>372.826</v>
       </c>
       <c r="AW2">
-        <v>608.5469999999999</v>
+        <v>575.579</v>
       </c>
       <c r="AX2">
-        <v>473.297</v>
+        <v>486.287</v>
       </c>
       <c r="AY2">
-        <v>670.6319999999999</v>
+        <v>649.478</v>
       </c>
       <c r="AZ2">
-        <v>75.6358</v>
+        <v>96.17910000000001</v>
       </c>
       <c r="BA2">
-        <v>194.635</v>
+        <v>206.839</v>
       </c>
       <c r="BB2">
-        <v>551.6319999999999</v>
+        <v>538.818</v>
       </c>
       <c r="BC2">
-        <v>373.134</v>
+        <v>372.829</v>
       </c>
       <c r="BD2">
-        <v>594.996</v>
+        <v>553.299</v>
       </c>
       <c r="BE2">
-        <v>472.513</v>
+        <v>487.302</v>
       </c>
       <c r="BF2">
-        <v>704.898</v>
+        <v>699.926</v>
       </c>
       <c r="BG2">
-        <v>34.5671</v>
+        <v>40.5969</v>
       </c>
       <c r="BH2">
-        <v>168.633</v>
+        <v>172.463</v>
       </c>
       <c r="BI2">
-        <v>570.832</v>
+        <v>568.0599999999999</v>
       </c>
       <c r="BJ2">
-        <v>369.7329999999999</v>
+        <v>370.261</v>
       </c>
       <c r="BK2">
-        <v>670.331</v>
+        <v>659.3290000000001</v>
       </c>
       <c r="BL2">
-        <v>615.105</v>
+        <v>628.577</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -1229,139 +1229,139 @@
         <v>93</v>
       </c>
       <c r="T3">
-        <v>157.413</v>
+        <v>164.066</v>
       </c>
       <c r="U3">
-        <v>157.474</v>
+        <v>164.079</v>
       </c>
       <c r="V3">
-        <v>157.444</v>
+        <v>164.072</v>
       </c>
       <c r="W3">
-        <v>369.286</v>
+        <v>164.299</v>
       </c>
       <c r="X3">
-        <v>366.477</v>
+        <v>164.332</v>
       </c>
       <c r="Y3">
-        <v>367.881</v>
+        <v>164.315</v>
       </c>
       <c r="Z3">
-        <v>277.283</v>
+        <v>291.991</v>
       </c>
       <c r="AA3">
-        <v>277.494</v>
+        <v>291.934</v>
       </c>
       <c r="AB3">
-        <v>277.388</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>-105.901</v>
+        <v>291.962</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>95.58969999999999</v>
       </c>
       <c r="AD3" s="2">
-        <v>185.953</v>
+        <v>95.54860000000001</v>
       </c>
       <c r="AE3" s="2">
-        <v>140.21</v>
+        <v>109.65</v>
       </c>
       <c r="AF3" s="2">
-        <v>139.517</v>
+        <v>108.798</v>
       </c>
       <c r="AG3" s="4">
-        <v>39.8476</v>
+        <v>45.74120000000001</v>
       </c>
       <c r="AH3" s="4">
-        <v>40.41520000000001</v>
+        <v>45.8977</v>
       </c>
       <c r="AI3" s="3">
-        <v>-3.36176</v>
+        <v>3.57887</v>
       </c>
       <c r="AJ3" s="3">
-        <v>1.91453</v>
+        <v>3.58041</v>
       </c>
       <c r="AK3" s="3">
-        <v>2.46424</v>
+        <v>2.98834</v>
       </c>
       <c r="AL3" s="3">
-        <v>2.47648</v>
+        <v>3.01174</v>
       </c>
       <c r="AM3">
-        <v>9.75905</v>
+        <v>8.54133</v>
       </c>
       <c r="AN3">
-        <v>9.622</v>
+        <v>8.512219999999999</v>
       </c>
       <c r="AO3">
-        <v>49.9907</v>
+        <v>49.9817</v>
       </c>
       <c r="AP3">
-        <v>49.9822</v>
+        <v>49.9871</v>
       </c>
       <c r="AQ3">
-        <v>50.0317</v>
+        <v>49.9657</v>
       </c>
       <c r="AR3">
-        <v>686.8149999999999</v>
+        <v>675.8009999999999</v>
       </c>
       <c r="AS3">
-        <v>93.45999999999999</v>
+        <v>105.63</v>
       </c>
       <c r="AT3">
-        <v>212.131</v>
+        <v>219.664</v>
       </c>
       <c r="AU3">
-        <v>568.144</v>
+        <v>561.7670000000001</v>
       </c>
       <c r="AV3">
-        <v>390.137</v>
+        <v>390.715</v>
       </c>
       <c r="AW3">
-        <v>593.3549999999999</v>
+        <v>570.1709999999999</v>
       </c>
       <c r="AX3">
-        <v>490.89</v>
+        <v>504.7140000000001</v>
       </c>
       <c r="AY3">
-        <v>677.8889999999999</v>
+        <v>663.731</v>
       </c>
       <c r="AZ3">
-        <v>102.038</v>
+        <v>117.613</v>
       </c>
       <c r="BA3">
-        <v>217.208</v>
+        <v>226.837</v>
       </c>
       <c r="BB3">
-        <v>562.7189999999999</v>
+        <v>554.5069999999999</v>
       </c>
       <c r="BC3">
-        <v>389.963</v>
+        <v>390.672</v>
       </c>
       <c r="BD3">
-        <v>575.851</v>
+        <v>546.117</v>
       </c>
       <c r="BE3">
-        <v>489.976</v>
+        <v>505.61</v>
       </c>
       <c r="BF3">
-        <v>712.0840000000001</v>
+        <v>714.482</v>
       </c>
       <c r="BG3">
-        <v>63.96</v>
+        <v>63.33039999999999</v>
       </c>
       <c r="BH3">
-        <v>193.585</v>
+        <v>193.561</v>
       </c>
       <c r="BI3">
-        <v>582.4599999999999</v>
+        <v>584.252</v>
       </c>
       <c r="BJ3">
-        <v>388.022</v>
+        <v>388.9059999999999</v>
       </c>
       <c r="BK3">
-        <v>648.124</v>
+        <v>651.1519999999999</v>
       </c>
       <c r="BL3">
-        <v>630.7380000000001</v>
+        <v>646.302</v>
       </c>
     </row>
     <row r="4" spans="1:64">
@@ -1423,139 +1423,139 @@
         <v>96</v>
       </c>
       <c r="T4">
-        <v>159.78</v>
+        <v>166.406</v>
       </c>
       <c r="U4">
-        <v>160.049</v>
+        <v>166.689</v>
       </c>
       <c r="V4">
-        <v>159.914</v>
+        <v>166.548</v>
       </c>
       <c r="W4">
-        <v>372.325</v>
+        <v>166.667</v>
       </c>
       <c r="X4">
-        <v>158.488</v>
+        <v>166.959</v>
       </c>
       <c r="Y4">
-        <v>265.406</v>
+        <v>166.813</v>
       </c>
       <c r="Z4">
-        <v>279.442</v>
+        <v>294.152</v>
       </c>
       <c r="AA4">
-        <v>280.068</v>
+        <v>294.348</v>
       </c>
       <c r="AB4">
-        <v>279.755</v>
+        <v>294.25</v>
       </c>
       <c r="AC4" s="2">
-        <v>294.453</v>
+        <v>893.0549999999999</v>
       </c>
       <c r="AD4" s="3">
-        <v>-286.738</v>
+        <v>-947.6640000000001</v>
       </c>
       <c r="AE4" s="2">
-        <v>140.154</v>
+        <v>107.169</v>
       </c>
       <c r="AF4" s="2">
-        <v>140.5</v>
+        <v>108.073</v>
       </c>
       <c r="AG4" s="4">
-        <v>41.0377</v>
+        <v>45.3939</v>
       </c>
       <c r="AH4" s="4">
-        <v>41.8476</v>
+        <v>45.5805</v>
       </c>
       <c r="AI4" s="3">
-        <v>1.27008</v>
+        <v>0.399915</v>
       </c>
       <c r="AJ4" s="3">
-        <v>-1.30425</v>
+        <v>-0.376869</v>
       </c>
       <c r="AK4" s="3">
-        <v>2.60011</v>
+        <v>3.19862</v>
       </c>
       <c r="AL4" s="3">
-        <v>2.59371</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>10.0498</v>
+        <v>3.17186</v>
+      </c>
+      <c r="AM4">
+        <v>9.013870000000001</v>
       </c>
       <c r="AN4">
-        <v>9.85534</v>
+        <v>8.97697</v>
       </c>
       <c r="AO4">
-        <v>50.0378</v>
+        <v>50.044</v>
       </c>
       <c r="AP4">
-        <v>49.9753</v>
+        <v>50.0471</v>
       </c>
       <c r="AQ4">
-        <v>50.1298</v>
+        <v>50.0258</v>
       </c>
       <c r="AR4">
-        <v>703.572</v>
+        <v>688.569</v>
       </c>
       <c r="AS4">
-        <v>80.27489999999999</v>
+        <v>93.3266</v>
       </c>
       <c r="AT4">
-        <v>204.934</v>
+        <v>212.375</v>
       </c>
       <c r="AU4">
-        <v>578.9119999999999</v>
+        <v>569.5210000000001</v>
       </c>
       <c r="AV4">
-        <v>391.923</v>
+        <v>390.948</v>
       </c>
       <c r="AW4">
-        <v>623.297</v>
+        <v>595.2429999999999</v>
       </c>
       <c r="AX4">
-        <v>493.405</v>
+        <v>507.008</v>
       </c>
       <c r="AY4">
-        <v>695.62</v>
+        <v>676.593</v>
       </c>
       <c r="AZ4">
-        <v>88.258</v>
+        <v>105.27</v>
       </c>
       <c r="BA4">
-        <v>209.73</v>
+        <v>219.535</v>
       </c>
       <c r="BB4">
-        <v>574.1469999999999</v>
+        <v>562.329</v>
       </c>
       <c r="BC4">
-        <v>391.939</v>
+        <v>390.932</v>
       </c>
       <c r="BD4">
-        <v>607.362</v>
+        <v>571.323</v>
       </c>
       <c r="BE4">
-        <v>492.561</v>
+        <v>508.008</v>
       </c>
       <c r="BF4">
-        <v>730.818</v>
+        <v>729.168</v>
       </c>
       <c r="BG4">
-        <v>43.4479</v>
+        <v>47.2107</v>
       </c>
       <c r="BH4">
-        <v>180.922</v>
+        <v>183.602</v>
       </c>
       <c r="BI4">
-        <v>593.3439999999999</v>
+        <v>592.7769999999999</v>
       </c>
       <c r="BJ4">
-        <v>387.133</v>
+        <v>388.19</v>
       </c>
       <c r="BK4">
-        <v>687.37</v>
+        <v>681.958</v>
       </c>
       <c r="BL4">
-        <v>634.673</v>
+        <v>649.129</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1617,139 +1617,139 @@
         <v>100</v>
       </c>
       <c r="T5">
-        <v>196.341</v>
+        <v>203.715</v>
       </c>
       <c r="U5">
-        <v>196.36</v>
+        <v>203.716</v>
       </c>
       <c r="V5">
-        <v>196.35</v>
+        <v>203.716</v>
       </c>
       <c r="W5">
-        <v>411.783</v>
+        <v>203.838</v>
       </c>
       <c r="X5">
-        <v>410.021</v>
+        <v>203.851</v>
       </c>
       <c r="Y5">
-        <v>410.902</v>
+        <v>203.845</v>
       </c>
       <c r="Z5">
-        <v>316.401</v>
+        <v>331.859</v>
       </c>
       <c r="AA5">
-        <v>316.6300000000001</v>
+        <v>331.796</v>
       </c>
       <c r="AB5">
-        <v>316.515</v>
+        <v>331.827</v>
       </c>
       <c r="AC5" s="2">
-        <v>136.39</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>-105.942</v>
+        <v>98.937</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>98.6915</v>
       </c>
       <c r="AE5" s="2">
-        <v>139.902</v>
+        <v>111.703</v>
       </c>
       <c r="AF5" s="2">
-        <v>139.237</v>
+        <v>110.712</v>
       </c>
       <c r="AG5" s="4">
-        <v>37.7739</v>
+        <v>46.3319</v>
       </c>
       <c r="AH5" s="4">
-        <v>38.3322</v>
+        <v>46.4879</v>
       </c>
       <c r="AI5" s="3">
-        <v>2.10436</v>
+        <v>2.80308</v>
       </c>
       <c r="AJ5" s="3">
-        <v>-2.70916</v>
+        <v>2.81006</v>
       </c>
       <c r="AK5" s="3">
-        <v>1.98027</v>
+        <v>2.36975</v>
       </c>
       <c r="AL5" s="3">
-        <v>1.98973</v>
+        <v>2.39095</v>
       </c>
       <c r="AM5">
-        <v>8.120010000000001</v>
+        <v>6.81355</v>
       </c>
       <c r="AN5">
-        <v>8.001749999999999</v>
+        <v>6.7907</v>
       </c>
       <c r="AO5">
-        <v>49.9754</v>
+        <v>49.9753</v>
       </c>
       <c r="AP5">
-        <v>49.9664</v>
+        <v>49.9794</v>
       </c>
       <c r="AQ5">
-        <v>50.0329</v>
+        <v>49.9614</v>
       </c>
       <c r="AR5">
-        <v>573.418</v>
+        <v>565.582</v>
       </c>
       <c r="AS5">
-        <v>95.0612</v>
+        <v>103.367</v>
       </c>
       <c r="AT5">
-        <v>190.733</v>
+        <v>195.81</v>
       </c>
       <c r="AU5">
-        <v>477.747</v>
+        <v>473.139</v>
       </c>
       <c r="AV5">
-        <v>334.24</v>
+        <v>334.475</v>
       </c>
       <c r="AW5">
-        <v>478.357</v>
+        <v>462.214</v>
       </c>
       <c r="AX5">
-        <v>530.509</v>
+        <v>545.114</v>
       </c>
       <c r="AY5">
-        <v>564.9889999999999</v>
+        <v>555.048</v>
       </c>
       <c r="AZ5">
-        <v>103.25</v>
+        <v>113.87</v>
       </c>
       <c r="BA5">
-        <v>195.598</v>
+        <v>202.105</v>
       </c>
       <c r="BB5">
-        <v>472.641</v>
+        <v>466.813</v>
       </c>
       <c r="BC5">
-        <v>334.1199999999999</v>
+        <v>334.459</v>
       </c>
       <c r="BD5">
-        <v>461.739</v>
+        <v>441.179</v>
       </c>
       <c r="BE5">
-        <v>529.4979999999999</v>
+        <v>545.845</v>
       </c>
       <c r="BF5">
-        <v>587.855</v>
+        <v>596.1419999999999</v>
       </c>
       <c r="BG5">
-        <v>76.6478</v>
+        <v>69.99959999999999</v>
       </c>
       <c r="BH5">
-        <v>178.889</v>
+        <v>175.228</v>
       </c>
       <c r="BI5">
-        <v>485.614</v>
+        <v>490.913</v>
       </c>
       <c r="BJ5">
-        <v>332.252</v>
+        <v>333.071</v>
       </c>
       <c r="BK5">
-        <v>511.2069999999999</v>
+        <v>526.1419999999999</v>
       </c>
       <c r="BL5">
-        <v>668.208</v>
+        <v>686.189</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -1811,139 +1811,139 @@
         <v>102</v>
       </c>
       <c r="T6">
-        <v>211.148</v>
+        <v>218.717</v>
       </c>
       <c r="U6">
-        <v>211.23</v>
+        <v>218.997</v>
       </c>
       <c r="V6">
-        <v>211.189</v>
+        <v>218.857</v>
       </c>
       <c r="W6">
-        <v>428.564</v>
+        <v>218.853</v>
       </c>
       <c r="X6">
-        <v>422.983</v>
+        <v>219.119</v>
       </c>
       <c r="Y6">
-        <v>425.773</v>
+        <v>218.986</v>
       </c>
       <c r="Z6">
-        <v>330.867</v>
+        <v>346.711</v>
       </c>
       <c r="AA6">
-        <v>331.6780000000001</v>
+        <v>346.925</v>
       </c>
       <c r="AB6">
-        <v>331.272</v>
+        <v>346.818</v>
       </c>
       <c r="AC6" s="2">
-        <v>1227.62</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>-1062.76</v>
+        <v>97.3884</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>99.1374</v>
       </c>
       <c r="AE6" s="2">
-        <v>139.561</v>
+        <v>110.66</v>
       </c>
       <c r="AF6" s="2">
-        <v>140.543</v>
+        <v>112.018</v>
       </c>
       <c r="AG6" s="4">
-        <v>38.1056</v>
+        <v>45.9407</v>
       </c>
       <c r="AH6" s="4">
-        <v>39.1441</v>
+        <v>46.0983</v>
       </c>
       <c r="AI6" s="3">
-        <v>0.243487</v>
+        <v>2.95455</v>
       </c>
       <c r="AJ6" s="3">
-        <v>-0.281256</v>
+        <v>2.90243</v>
       </c>
       <c r="AK6" s="3">
-        <v>2.07129</v>
+        <v>2.4848</v>
       </c>
       <c r="AL6" s="3">
-        <v>2.05681</v>
+        <v>2.45468</v>
       </c>
       <c r="AM6">
-        <v>8.40368</v>
+        <v>7.12387</v>
       </c>
       <c r="AN6">
-        <v>8.180720000000001</v>
+        <v>7.09951</v>
       </c>
       <c r="AO6">
-        <v>50.0274</v>
+        <v>50.0804</v>
       </c>
       <c r="AP6">
-        <v>49.9038</v>
+        <v>50.0768</v>
       </c>
       <c r="AQ6">
-        <v>50.2144</v>
+        <v>50.0634</v>
       </c>
       <c r="AR6">
-        <v>585.623</v>
+        <v>574.319</v>
       </c>
       <c r="AS6">
-        <v>87.44290000000001</v>
+        <v>94.7533</v>
       </c>
       <c r="AT6">
-        <v>187.079</v>
+        <v>190.666</v>
       </c>
       <c r="AU6">
-        <v>485.987</v>
+        <v>478.406</v>
       </c>
       <c r="AV6">
-        <v>336.533</v>
+        <v>334.536</v>
       </c>
       <c r="AW6">
-        <v>498.18</v>
+        <v>479.565</v>
       </c>
       <c r="AX6">
-        <v>545.8960000000001</v>
+        <v>560.597</v>
       </c>
       <c r="AY6">
-        <v>577.577</v>
+        <v>563.712</v>
       </c>
       <c r="AZ6">
-        <v>95.7927</v>
+        <v>105.432</v>
       </c>
       <c r="BA6">
-        <v>192.15</v>
+        <v>197.088</v>
       </c>
       <c r="BB6">
-        <v>481.22</v>
+        <v>472.056</v>
       </c>
       <c r="BC6">
-        <v>336.685</v>
+        <v>334.5719999999999</v>
       </c>
       <c r="BD6">
-        <v>481.785</v>
+        <v>458.28</v>
       </c>
       <c r="BE6">
-        <v>544.928</v>
+        <v>561.4240000000001</v>
       </c>
       <c r="BF6">
-        <v>597.468</v>
+        <v>604.6709999999999</v>
       </c>
       <c r="BG6">
-        <v>63.7567</v>
+        <v>59.2117</v>
       </c>
       <c r="BH6">
-        <v>170.499</v>
+        <v>168.304</v>
       </c>
       <c r="BI6">
-        <v>490.726</v>
+        <v>495.579</v>
       </c>
       <c r="BJ6">
-        <v>330.613</v>
+        <v>331.941</v>
       </c>
       <c r="BK6">
-        <v>533.712</v>
+        <v>545.4590000000001</v>
       </c>
       <c r="BL6">
-        <v>684.5700000000001</v>
+        <v>701.9930000000001</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -2005,139 +2005,139 @@
         <v>114</v>
       </c>
       <c r="T7">
-        <v>114.696</v>
+        <v>120.118</v>
       </c>
       <c r="U7">
-        <v>114.636</v>
+        <v>120.039</v>
       </c>
       <c r="V7">
-        <v>114.666</v>
+        <v>120.079</v>
       </c>
       <c r="W7">
-        <v>113.376</v>
+        <v>120.548</v>
       </c>
       <c r="X7">
-        <v>113.327</v>
+        <v>120.482</v>
       </c>
       <c r="Y7">
-        <v>113.352</v>
+        <v>120.515</v>
       </c>
       <c r="Z7">
-        <v>234.102</v>
+        <v>247.235</v>
       </c>
       <c r="AA7">
-        <v>234.114</v>
+        <v>247.354</v>
       </c>
       <c r="AB7">
-        <v>234.108</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>183.355</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>28.3697</v>
+        <v>247.295</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-156.613</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>178.383</v>
       </c>
       <c r="AE7" s="2">
-        <v>141.902</v>
+        <v>103.908</v>
       </c>
       <c r="AF7" s="2">
-        <v>141.187</v>
+        <v>103.642</v>
       </c>
       <c r="AG7" s="4">
-        <v>43.7147</v>
+        <v>45.8094</v>
       </c>
       <c r="AH7" s="4">
-        <v>44.1056</v>
+        <v>46.0858</v>
       </c>
       <c r="AI7" s="3">
-        <v>2.17752</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>14.0734</v>
+        <v>-2.39128</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>2.09944</v>
       </c>
       <c r="AK7" s="3">
-        <v>2.76407</v>
+        <v>3.47364</v>
       </c>
       <c r="AL7" s="3">
-        <v>2.77806</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>10.1785</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>10.0883</v>
+        <v>3.48256</v>
+      </c>
+      <c r="AM7">
+        <v>9.5985</v>
+      </c>
+      <c r="AN7">
+        <v>9.54092</v>
       </c>
       <c r="AO7">
-        <v>49.9852</v>
+        <v>49.9819</v>
       </c>
       <c r="AP7">
-        <v>49.9878</v>
+        <v>49.9853</v>
       </c>
       <c r="AQ7">
-        <v>50.0048</v>
+        <v>50.0312</v>
       </c>
       <c r="AR7">
-        <v>723.997</v>
+        <v>704.485</v>
       </c>
       <c r="AS7">
-        <v>58.5659</v>
+        <v>80.3104</v>
       </c>
       <c r="AT7">
-        <v>191.652</v>
+        <v>205.145</v>
       </c>
       <c r="AU7">
-        <v>590.9109999999999</v>
+        <v>579.65</v>
       </c>
       <c r="AV7">
-        <v>391.281</v>
+        <v>392.398</v>
       </c>
       <c r="AW7">
-        <v>665.4309999999999</v>
+        <v>624.1750000000001</v>
       </c>
       <c r="AX7">
-        <v>446.502</v>
+        <v>458.475</v>
       </c>
       <c r="AY7">
-        <v>717.866</v>
+        <v>693.133</v>
       </c>
       <c r="AZ7">
-        <v>64.15479999999999</v>
+        <v>91.5697</v>
       </c>
       <c r="BA7">
-        <v>194.897</v>
+        <v>211.882</v>
       </c>
       <c r="BB7">
-        <v>587.124</v>
+        <v>572.8199999999999</v>
       </c>
       <c r="BC7">
-        <v>391.011</v>
+        <v>392.351</v>
       </c>
       <c r="BD7">
-        <v>653.712</v>
+        <v>601.563</v>
       </c>
       <c r="BE7">
-        <v>445.793</v>
+        <v>459.528</v>
       </c>
       <c r="BF7">
-        <v>760.651</v>
+        <v>755.6949999999999</v>
       </c>
       <c r="BG7">
-        <v>19.0699</v>
+        <v>22.8595</v>
       </c>
       <c r="BH7">
-        <v>167.386</v>
+        <v>169.427</v>
       </c>
       <c r="BI7">
-        <v>612.3349999999999</v>
+        <v>609.128</v>
       </c>
       <c r="BJ7">
-        <v>389.86</v>
+        <v>389.277</v>
       </c>
       <c r="BK7">
-        <v>741.581</v>
+        <v>732.835</v>
       </c>
       <c r="BL7">
-        <v>589.5839999999999</v>
+        <v>601.9950000000001</v>
       </c>
     </row>
     <row r="8" spans="1:64">
@@ -2199,139 +2199,139 @@
         <v>116</v>
       </c>
       <c r="T8">
-        <v>111.47</v>
+        <v>116.569</v>
       </c>
       <c r="U8">
-        <v>111.619</v>
+        <v>116.695</v>
       </c>
       <c r="V8">
-        <v>111.544</v>
+        <v>116.632</v>
       </c>
       <c r="W8">
-        <v>110.394</v>
+        <v>117.048</v>
       </c>
       <c r="X8">
-        <v>110.415</v>
+        <v>117.183</v>
       </c>
       <c r="Y8">
-        <v>110.404</v>
+        <v>117.116</v>
       </c>
       <c r="Z8">
-        <v>230.804</v>
+        <v>243.589</v>
       </c>
       <c r="AA8">
-        <v>231.102</v>
+        <v>243.783</v>
       </c>
       <c r="AB8">
-        <v>230.953</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>181.601</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>28.5719</v>
+        <v>243.686</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>-165.251</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>169.552</v>
       </c>
       <c r="AE8" s="2">
-        <v>141.817</v>
+        <v>99.3228</v>
       </c>
       <c r="AF8" s="2">
-        <v>141.977</v>
+        <v>100.233</v>
       </c>
       <c r="AG8" s="4">
-        <v>45.5889</v>
+        <v>46.8999</v>
       </c>
       <c r="AH8" s="4">
-        <v>46.08770000000001</v>
+        <v>47.1364</v>
       </c>
       <c r="AI8" s="3">
-        <v>2.31213</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>14.6957</v>
+        <v>-2.35835</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>2.29852</v>
       </c>
       <c r="AK8" s="3">
-        <v>2.92531</v>
+        <v>3.79144</v>
       </c>
       <c r="AL8" s="3">
-        <v>2.92202</v>
+        <v>3.75701</v>
       </c>
       <c r="AM8" s="2">
-        <v>10.4153</v>
+        <v>10.055</v>
       </c>
       <c r="AN8" s="2">
-        <v>10.3026</v>
+        <v>10.0046</v>
       </c>
       <c r="AO8">
-        <v>50.0367</v>
+        <v>50.0336</v>
       </c>
       <c r="AP8">
-        <v>50.005</v>
+        <v>50.0357</v>
       </c>
       <c r="AQ8">
-        <v>50.0744</v>
+        <v>50.0504</v>
       </c>
       <c r="AR8">
-        <v>742.6049999999999</v>
+        <v>717.246</v>
       </c>
       <c r="AS8">
-        <v>42.7968</v>
+        <v>67.7136</v>
       </c>
       <c r="AT8">
-        <v>182.758</v>
+        <v>197.62</v>
       </c>
       <c r="AU8">
-        <v>602.643</v>
+        <v>587.3399999999999</v>
       </c>
       <c r="AV8">
-        <v>392.701</v>
+        <v>392.48</v>
       </c>
       <c r="AW8">
-        <v>699.808</v>
+        <v>649.533</v>
       </c>
       <c r="AX8">
-        <v>443.083</v>
+        <v>454.483</v>
       </c>
       <c r="AY8">
-        <v>738.3499999999999</v>
+        <v>706.283</v>
       </c>
       <c r="AZ8">
-        <v>46.9178</v>
+        <v>78.655</v>
       </c>
       <c r="BA8">
-        <v>185.204</v>
+        <v>204.181</v>
       </c>
       <c r="BB8">
-        <v>600.0640000000001</v>
+        <v>580.7569999999999</v>
       </c>
       <c r="BC8">
-        <v>392.634</v>
+        <v>392.469</v>
       </c>
       <c r="BD8">
-        <v>691.432</v>
+        <v>627.6279999999999</v>
       </c>
       <c r="BE8">
-        <v>442.451</v>
+        <v>455.597</v>
       </c>
       <c r="BF8">
-        <v>784.811</v>
+        <v>782.064</v>
       </c>
       <c r="BG8">
-        <v>-6.56153</v>
+        <v>-3.90366</v>
       </c>
       <c r="BH8">
-        <v>151.713</v>
+        <v>153.29</v>
       </c>
       <c r="BI8">
-        <v>626.537</v>
+        <v>624.87</v>
       </c>
       <c r="BJ8">
-        <v>389.125</v>
+        <v>389.08</v>
       </c>
       <c r="BK8">
-        <v>791.3729999999999</v>
+        <v>785.967</v>
       </c>
       <c r="BL8">
-        <v>587.904</v>
+        <v>599.456</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2393,139 +2393,139 @@
         <v>78</v>
       </c>
       <c r="T9">
-        <v>132.008</v>
+        <v>137.978</v>
       </c>
       <c r="U9">
-        <v>131.934</v>
+        <v>137.892</v>
       </c>
       <c r="V9">
-        <v>131.971</v>
+        <v>137.935</v>
       </c>
       <c r="W9">
-        <v>130.558</v>
+        <v>138.339</v>
       </c>
       <c r="X9">
-        <v>130.504</v>
+        <v>138.263</v>
       </c>
       <c r="Y9">
-        <v>130.531</v>
+        <v>138.301</v>
       </c>
       <c r="Z9">
-        <v>251.489</v>
+        <v>265.213</v>
       </c>
       <c r="AA9">
-        <v>251.478</v>
+        <v>265.317</v>
       </c>
       <c r="AB9">
-        <v>251.484</v>
+        <v>265.265</v>
       </c>
       <c r="AC9" s="3">
-        <v>-134.791</v>
+        <v>-149.644</v>
       </c>
       <c r="AD9" s="2">
-        <v>185.027</v>
+        <v>185.923</v>
       </c>
       <c r="AE9" s="2">
-        <v>141.747</v>
+        <v>107.42</v>
       </c>
       <c r="AF9" s="2">
-        <v>141.042</v>
+        <v>106.859</v>
       </c>
       <c r="AG9" s="4">
-        <v>42.2983</v>
+        <v>45.0153</v>
       </c>
       <c r="AH9" s="4">
-        <v>42.64850000000001</v>
+        <v>45.2648</v>
       </c>
       <c r="AI9" s="3">
-        <v>-2.45356</v>
+        <v>-2.08499</v>
       </c>
       <c r="AJ9" s="3">
-        <v>1.7874</v>
+        <v>1.67814</v>
       </c>
       <c r="AK9" s="3">
-        <v>2.2833</v>
+        <v>2.79353</v>
       </c>
       <c r="AL9" s="3">
-        <v>2.29471</v>
+        <v>2.8082</v>
       </c>
       <c r="AM9">
-        <v>8.60463</v>
+        <v>7.95324</v>
       </c>
       <c r="AN9">
-        <v>8.53398</v>
+        <v>7.9094</v>
       </c>
       <c r="AO9">
-        <v>49.9803</v>
+        <v>49.978</v>
       </c>
       <c r="AP9">
-        <v>49.9851</v>
+        <v>49.9808</v>
       </c>
       <c r="AQ9">
-        <v>49.9981</v>
+        <v>50.0261</v>
       </c>
       <c r="AR9">
-        <v>610.8820000000001</v>
+        <v>596.1189999999999</v>
       </c>
       <c r="AS9">
-        <v>59.6865</v>
+        <v>76.1105</v>
       </c>
       <c r="AT9">
-        <v>169.926</v>
+        <v>180.112</v>
       </c>
       <c r="AU9">
-        <v>500.6429999999999</v>
+        <v>492.117</v>
       </c>
       <c r="AV9">
-        <v>335.284</v>
+        <v>336.115</v>
       </c>
       <c r="AW9">
-        <v>551.1949999999999</v>
+        <v>520.008</v>
       </c>
       <c r="AX9">
-        <v>464.332</v>
+        <v>477.0280000000001</v>
       </c>
       <c r="AY9">
-        <v>604.793</v>
+        <v>586.1619999999999</v>
       </c>
       <c r="AZ9">
-        <v>65.3754</v>
+        <v>86.0253</v>
       </c>
       <c r="BA9">
-        <v>173.259</v>
+        <v>186.053</v>
       </c>
       <c r="BB9">
-        <v>496.909</v>
+        <v>486.135</v>
       </c>
       <c r="BC9">
-        <v>335.084</v>
+        <v>336.094</v>
       </c>
       <c r="BD9">
-        <v>539.4179999999999</v>
+        <v>500.1370000000001</v>
       </c>
       <c r="BE9">
-        <v>463.569</v>
+        <v>478.0410000000001</v>
       </c>
       <c r="BF9">
-        <v>637.405</v>
+        <v>631.97</v>
       </c>
       <c r="BG9">
-        <v>30.8019</v>
+        <v>35.2738</v>
       </c>
       <c r="BH9">
-        <v>152.122</v>
+        <v>154.613</v>
       </c>
       <c r="BI9">
-        <v>516.0839999999999</v>
+        <v>512.631</v>
       </c>
       <c r="BJ9">
-        <v>334.103</v>
+        <v>333.622</v>
       </c>
       <c r="BK9">
-        <v>606.603</v>
+        <v>596.696</v>
       </c>
       <c r="BL9">
-        <v>606.08</v>
+        <v>619.4259999999999</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2587,139 +2587,139 @@
         <v>114</v>
       </c>
       <c r="T10">
-        <v>133.701</v>
+        <v>139.498</v>
       </c>
       <c r="U10">
-        <v>133.882</v>
+        <v>139.69</v>
       </c>
       <c r="V10">
-        <v>133.791</v>
+        <v>139.594</v>
       </c>
       <c r="W10">
-        <v>341.349</v>
+        <v>139.892</v>
       </c>
       <c r="X10">
-        <v>132.442</v>
+        <v>140.085</v>
       </c>
       <c r="Y10">
-        <v>236.895</v>
+        <v>139.989</v>
       </c>
       <c r="Z10">
-        <v>253.022</v>
+        <v>266.626</v>
       </c>
       <c r="AA10">
-        <v>253.435</v>
+        <v>266.895</v>
       </c>
       <c r="AB10">
-        <v>253.229</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>184.225</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>29.7798</v>
+        <v>266.76</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>-156.826</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>177.148</v>
       </c>
       <c r="AE10" s="2">
-        <v>141.576</v>
+        <v>102.659</v>
       </c>
       <c r="AF10" s="2">
-        <v>141.981</v>
+        <v>103.99</v>
       </c>
       <c r="AG10" s="4">
-        <v>43.8442</v>
+        <v>45.8361</v>
       </c>
       <c r="AH10" s="4">
-        <v>44.4241</v>
+        <v>46.0789</v>
       </c>
       <c r="AI10" s="3">
-        <v>1.88658</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>11.6708</v>
+        <v>-2.07229</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1.83456</v>
       </c>
       <c r="AK10" s="3">
-        <v>2.41347</v>
+        <v>3.05182</v>
       </c>
       <c r="AL10" s="3">
-        <v>2.40659</v>
+        <v>3.01277</v>
       </c>
       <c r="AM10">
-        <v>8.829050000000001</v>
+        <v>8.347799999999999</v>
       </c>
       <c r="AN10">
-        <v>8.71381</v>
+        <v>8.30382</v>
       </c>
       <c r="AO10">
-        <v>50.0396</v>
+        <v>50.0449</v>
       </c>
       <c r="AP10">
-        <v>49.9813</v>
+        <v>50.0457</v>
       </c>
       <c r="AQ10">
-        <v>50.0995</v>
+        <v>50.0655</v>
       </c>
       <c r="AR10">
-        <v>626.3389999999999</v>
+        <v>606.917</v>
       </c>
       <c r="AS10">
-        <v>47.0821</v>
+        <v>65.2672</v>
       </c>
       <c r="AT10">
-        <v>162.934</v>
+        <v>173.597</v>
       </c>
       <c r="AU10">
-        <v>510.4880000000001</v>
+        <v>498.587</v>
       </c>
       <c r="AV10">
-        <v>336.711</v>
+        <v>336.092</v>
       </c>
       <c r="AW10">
-        <v>579.2570000000001</v>
+        <v>541.65</v>
       </c>
       <c r="AX10">
-        <v>466.035</v>
+        <v>478.378</v>
       </c>
       <c r="AY10">
-        <v>621.514</v>
+        <v>597.186</v>
       </c>
       <c r="AZ10">
-        <v>52.0305</v>
+        <v>75.02200000000001</v>
       </c>
       <c r="BA10">
-        <v>165.927</v>
+        <v>179.455</v>
       </c>
       <c r="BB10">
-        <v>507.617</v>
+        <v>492.753</v>
       </c>
       <c r="BC10">
-        <v>336.772</v>
+        <v>336.104</v>
       </c>
       <c r="BD10">
-        <v>569.4829999999999</v>
+        <v>522.163</v>
       </c>
       <c r="BE10">
-        <v>465.342</v>
+        <v>479.4760000000001</v>
       </c>
       <c r="BF10">
-        <v>655.6189999999999</v>
+        <v>651.9160000000001</v>
       </c>
       <c r="BG10">
-        <v>10.4473</v>
+        <v>14.1977</v>
       </c>
       <c r="BH10">
-        <v>139.482</v>
+        <v>141.741</v>
       </c>
       <c r="BI10">
-        <v>526.5849999999999</v>
+        <v>524.372</v>
       </c>
       <c r="BJ10">
-        <v>333.033</v>
+        <v>333.057</v>
       </c>
       <c r="BK10">
-        <v>645.1719999999999</v>
+        <v>637.718</v>
       </c>
       <c r="BL10">
-        <v>609.438</v>
+        <v>622.0840000000001</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2921,139 +2921,139 @@
         <v>119</v>
       </c>
       <c r="T12" s="1">
-        <v>111.47</v>
+        <v>116.569</v>
       </c>
       <c r="U12" s="1">
-        <v>111.619</v>
+        <v>116.695</v>
       </c>
       <c r="V12" s="1">
-        <v>111.544</v>
+        <v>116.632</v>
       </c>
       <c r="W12" s="1">
-        <v>110.394</v>
+        <v>117.048</v>
       </c>
       <c r="X12" s="1">
-        <v>110.415</v>
+        <v>117.183</v>
       </c>
       <c r="Y12" s="1">
-        <v>110.404</v>
+        <v>117.116</v>
       </c>
       <c r="Z12" s="1">
-        <v>230.804</v>
+        <v>243.589</v>
       </c>
       <c r="AA12" s="1">
-        <v>231.102</v>
+        <v>243.783</v>
       </c>
       <c r="AB12" s="1">
-        <v>230.953</v>
+        <v>243.686</v>
       </c>
       <c r="AC12" s="3">
-        <v>-134.791</v>
+        <v>-165.251</v>
       </c>
       <c r="AD12" s="3">
-        <v>-1062.76</v>
+        <v>-947.6640000000001</v>
       </c>
       <c r="AE12" s="2">
-        <v>139.561</v>
+        <v>99.3228</v>
       </c>
       <c r="AF12" s="2">
-        <v>139.237</v>
+        <v>100.233</v>
       </c>
       <c r="AG12" s="4">
-        <v>37.7739</v>
+        <v>45.0153</v>
       </c>
       <c r="AH12" s="4">
-        <v>38.3322</v>
+        <v>45.2619</v>
       </c>
       <c r="AI12" s="3">
-        <v>-3.36176</v>
+        <v>-2.39128</v>
       </c>
       <c r="AJ12" s="3">
-        <v>-2.70916</v>
+        <v>-2.29187</v>
       </c>
       <c r="AK12" s="3">
-        <v>1.98027</v>
+        <v>2.36975</v>
       </c>
       <c r="AL12" s="3">
-        <v>1.98973</v>
+        <v>2.39095</v>
       </c>
       <c r="AM12" s="1">
-        <v>8.120010000000001</v>
+        <v>6.81355</v>
       </c>
       <c r="AN12" s="1">
-        <v>8.001749999999999</v>
+        <v>6.7907</v>
       </c>
       <c r="AO12" s="1">
-        <v>49.9754</v>
+        <v>49.9753</v>
       </c>
       <c r="AP12" s="1">
-        <v>49.9038</v>
+        <v>49.9794</v>
       </c>
       <c r="AQ12" s="1">
-        <v>49.9981</v>
+        <v>49.9614</v>
       </c>
       <c r="AR12" s="1">
-        <v>573.418</v>
+        <v>565.582</v>
       </c>
       <c r="AS12" s="1">
-        <v>42.7968</v>
+        <v>65.2672</v>
       </c>
       <c r="AT12" s="1">
-        <v>162.934</v>
+        <v>173.597</v>
       </c>
       <c r="AU12" s="1">
-        <v>477.747</v>
+        <v>473.139</v>
       </c>
       <c r="AV12" s="1">
-        <v>334.24</v>
+        <v>334.475</v>
       </c>
       <c r="AW12" s="1">
-        <v>478.357</v>
+        <v>462.214</v>
       </c>
       <c r="AX12" s="1">
-        <v>443.083</v>
+        <v>454.483</v>
       </c>
       <c r="AY12" s="1">
-        <v>564.9889999999999</v>
+        <v>555.048</v>
       </c>
       <c r="AZ12" s="1">
-        <v>46.9178</v>
+        <v>75.02200000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>165.927</v>
+        <v>179.455</v>
       </c>
       <c r="BB12" s="1">
-        <v>472.641</v>
+        <v>466.813</v>
       </c>
       <c r="BC12" s="1">
-        <v>334.1199999999999</v>
+        <v>334.459</v>
       </c>
       <c r="BD12" s="1">
-        <v>461.739</v>
+        <v>441.179</v>
       </c>
       <c r="BE12" s="1">
-        <v>442.451</v>
+        <v>455.597</v>
       </c>
       <c r="BF12" s="1">
-        <v>587.855</v>
+        <v>596.1419999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-6.56153</v>
+        <v>-3.90366</v>
       </c>
       <c r="BH12" s="1">
-        <v>139.482</v>
+        <v>141.741</v>
       </c>
       <c r="BI12" s="1">
-        <v>485.614</v>
+        <v>490.913</v>
       </c>
       <c r="BJ12" s="1">
-        <v>330.613</v>
+        <v>331.941</v>
       </c>
       <c r="BK12" s="1">
-        <v>511.2069999999999</v>
+        <v>526.1419999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>587.904</v>
+        <v>599.456</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
@@ -3061,139 +3061,139 @@
         <v>120</v>
       </c>
       <c r="T13" s="1">
-        <v>211.148</v>
+        <v>218.717</v>
       </c>
       <c r="U13" s="1">
-        <v>211.23</v>
+        <v>218.997</v>
       </c>
       <c r="V13" s="1">
-        <v>211.189</v>
+        <v>218.857</v>
       </c>
       <c r="W13" s="1">
-        <v>428.564</v>
+        <v>218.853</v>
       </c>
       <c r="X13" s="1">
-        <v>422.983</v>
+        <v>219.119</v>
       </c>
       <c r="Y13" s="1">
-        <v>425.773</v>
+        <v>218.986</v>
       </c>
       <c r="Z13" s="1">
-        <v>330.867</v>
+        <v>346.711</v>
       </c>
       <c r="AA13" s="1">
-        <v>331.6780000000001</v>
+        <v>346.925</v>
       </c>
       <c r="AB13" s="1">
-        <v>331.272</v>
+        <v>346.818</v>
       </c>
       <c r="AC13" s="2">
-        <v>1227.62</v>
+        <v>893.0549999999999</v>
       </c>
       <c r="AD13" s="2">
-        <v>185.953</v>
+        <v>185.923</v>
       </c>
       <c r="AE13" s="2">
-        <v>141.902</v>
+        <v>111.703</v>
       </c>
       <c r="AF13" s="2">
-        <v>141.981</v>
+        <v>112.018</v>
       </c>
       <c r="AG13" s="4">
-        <v>45.5889</v>
+        <v>46.8999</v>
       </c>
       <c r="AH13" s="4">
-        <v>46.08770000000001</v>
+        <v>47.1364</v>
       </c>
       <c r="AI13" s="3">
-        <v>2.31213</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>14.6957</v>
+        <v>3.74879</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>3.58041</v>
       </c>
       <c r="AK13" s="3">
-        <v>2.92531</v>
+        <v>3.79144</v>
       </c>
       <c r="AL13" s="3">
-        <v>2.92202</v>
+        <v>3.75701</v>
       </c>
       <c r="AM13" s="2">
-        <v>10.4153</v>
+        <v>10.055</v>
       </c>
       <c r="AN13" s="2">
-        <v>10.3026</v>
+        <v>10.0046</v>
       </c>
       <c r="AO13" s="1">
-        <v>50.0396</v>
+        <v>50.0804</v>
       </c>
       <c r="AP13" s="1">
-        <v>50.005</v>
+        <v>50.0768</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50.2144</v>
+        <v>50.0655</v>
       </c>
       <c r="AR13" s="1">
-        <v>742.6049999999999</v>
+        <v>717.246</v>
       </c>
       <c r="AS13" s="1">
-        <v>95.0612</v>
+        <v>105.63</v>
       </c>
       <c r="AT13" s="1">
-        <v>212.131</v>
+        <v>219.664</v>
       </c>
       <c r="AU13" s="1">
-        <v>602.643</v>
+        <v>587.3399999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>392.701</v>
+        <v>392.48</v>
       </c>
       <c r="AW13" s="1">
-        <v>699.808</v>
+        <v>649.533</v>
       </c>
       <c r="AX13" s="1">
-        <v>545.8960000000001</v>
+        <v>560.597</v>
       </c>
       <c r="AY13" s="1">
-        <v>738.3499999999999</v>
+        <v>706.283</v>
       </c>
       <c r="AZ13" s="1">
-        <v>103.25</v>
+        <v>117.613</v>
       </c>
       <c r="BA13" s="1">
-        <v>217.208</v>
+        <v>226.837</v>
       </c>
       <c r="BB13" s="1">
-        <v>600.0640000000001</v>
+        <v>580.7569999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>392.634</v>
+        <v>392.469</v>
       </c>
       <c r="BD13" s="1">
-        <v>691.432</v>
+        <v>627.6279999999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>544.928</v>
+        <v>561.4240000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>784.811</v>
+        <v>782.064</v>
       </c>
       <c r="BG13" s="1">
-        <v>76.6478</v>
+        <v>69.99959999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>193.585</v>
+        <v>193.561</v>
       </c>
       <c r="BI13" s="1">
-        <v>626.537</v>
+        <v>624.87</v>
       </c>
       <c r="BJ13" s="1">
-        <v>389.86</v>
+        <v>389.277</v>
       </c>
       <c r="BK13" s="1">
-        <v>791.3729999999999</v>
+        <v>785.967</v>
       </c>
       <c r="BL13" s="1">
-        <v>684.5700000000001</v>
+        <v>701.9930000000001</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
@@ -3455,139 +3455,139 @@
         <v>125</v>
       </c>
       <c r="T18" s="1">
-        <v>150.7813333333334</v>
+        <v>157.0781111111111</v>
       </c>
       <c r="U18" s="1">
-        <v>150.8684444444444</v>
+        <v>157.1768888888889</v>
       </c>
       <c r="V18" s="1">
-        <v>150.8246666666667</v>
+        <v>157.1276666666667</v>
       </c>
       <c r="W18" s="1">
-        <v>292.0092222222223</v>
+        <v>157.3841111111111</v>
       </c>
       <c r="X18" s="1">
-        <v>220.4246666666667</v>
+        <v>157.4902222222222</v>
       </c>
       <c r="Y18" s="1">
-        <v>256.2166666666667</v>
+        <v>157.4372222222222</v>
       </c>
       <c r="Z18" s="1">
-        <v>270.3726666666667</v>
+        <v>284.6082222222223</v>
       </c>
       <c r="AA18" s="1">
-        <v>270.7014444444445</v>
+        <v>284.7315555555555</v>
       </c>
       <c r="AB18" s="1">
-        <v>270.537</v>
+        <v>284.6697777777778</v>
       </c>
       <c r="AC18" s="1">
-        <v>275.7383333333333</v>
+        <v>72.08426666666664</v>
       </c>
       <c r="AD18" s="1">
-        <v>-142.9946222222222</v>
+        <v>-10.44050000000001</v>
       </c>
       <c r="AE18" s="1">
-        <v>140.8807777777778</v>
+        <v>106.5782</v>
       </c>
       <c r="AF18" s="1">
-        <v>140.7897777777778</v>
+        <v>106.8676666666667</v>
       </c>
       <c r="AG18" s="1">
-        <v>41.57308888888889</v>
+        <v>45.78442222222222</v>
       </c>
       <c r="AH18" s="1">
-        <v>42.17250000000001</v>
+        <v>45.98802222222221</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.5431385555555556</v>
+        <v>0.5086994444444444</v>
       </c>
       <c r="AJ18" s="1">
-        <v>4.287186000000001</v>
+        <v>1.614980111111111</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.448102222222222</v>
+        <v>3.029214444444444</v>
       </c>
       <c r="AL18" s="1">
-        <v>2.449754444444444</v>
+        <v>3.019824444444444</v>
       </c>
       <c r="AM18" s="1">
-        <v>9.327588888888888</v>
+        <v>8.468932222222223</v>
       </c>
       <c r="AN18" s="1">
-        <v>9.194604444444444</v>
+        <v>8.430923333333334</v>
       </c>
       <c r="AO18" s="1">
-        <v>50.0112</v>
+        <v>50.01653333333334</v>
       </c>
       <c r="AP18" s="1">
-        <v>49.97456666666666</v>
+        <v>50.01876666666666</v>
       </c>
       <c r="AQ18" s="1">
-        <v>50.07442222222222</v>
+        <v>50.02367777777778</v>
       </c>
       <c r="AR18" s="1">
-        <v>658.9659999999999</v>
+        <v>643.2948888888889</v>
       </c>
       <c r="AS18" s="1">
-        <v>70.36298888888888</v>
+        <v>85.72391111111112</v>
       </c>
       <c r="AT18" s="1">
-        <v>188.0836666666667</v>
+        <v>197.2378888888889</v>
       </c>
       <c r="AU18" s="1">
-        <v>541.2454444444444</v>
+        <v>531.7807777777778</v>
       </c>
       <c r="AV18" s="1">
-        <v>364.6644444444444</v>
+        <v>364.5094444444445</v>
       </c>
       <c r="AW18" s="1">
-        <v>588.603</v>
+        <v>557.5708888888889</v>
       </c>
       <c r="AX18" s="1">
-        <v>483.7721111111111</v>
+        <v>496.8982222222223</v>
       </c>
       <c r="AY18" s="1">
-        <v>652.1366666666665</v>
+        <v>632.3695555555555</v>
       </c>
       <c r="AZ18" s="1">
-        <v>77.05033333333333</v>
+        <v>96.62623333333335</v>
       </c>
       <c r="BA18" s="1">
-        <v>192.0675555555555</v>
+        <v>203.775</v>
       </c>
       <c r="BB18" s="1">
-        <v>537.1192222222221</v>
+        <v>525.2208888888888</v>
       </c>
       <c r="BC18" s="1">
-        <v>364.5935555555555</v>
+        <v>364.498</v>
       </c>
       <c r="BD18" s="1">
-        <v>575.0864444444444</v>
+        <v>535.7432222222222</v>
       </c>
       <c r="BE18" s="1">
-        <v>482.9590000000001</v>
+        <v>497.870111111111</v>
       </c>
       <c r="BF18" s="1">
-        <v>685.7343333333333</v>
+        <v>685.1148888888889</v>
       </c>
       <c r="BG18" s="1">
-        <v>37.34856333333333</v>
+        <v>38.75296</v>
       </c>
       <c r="BH18" s="1">
-        <v>167.0256666666667</v>
+        <v>168.0254444444444</v>
       </c>
       <c r="BI18" s="1">
-        <v>556.0574444444444</v>
+        <v>555.8424444444445</v>
       </c>
       <c r="BJ18" s="1">
-        <v>361.5415555555555</v>
+        <v>361.9338888888888</v>
       </c>
       <c r="BK18" s="1">
-        <v>648.3858888888888</v>
+        <v>646.3617777777777</v>
       </c>
       <c r="BL18" s="1">
-        <v>625.1444444444445</v>
+        <v>639.4612222222221</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
@@ -3595,139 +3595,139 @@
         <v>126</v>
       </c>
       <c r="T19" s="1">
-        <v>32.39118745722189</v>
+        <v>33.16648620200299</v>
       </c>
       <c r="U19" s="1">
-        <v>32.39694974706077</v>
+        <v>33.2151611214064</v>
       </c>
       <c r="V19" s="1">
-        <v>32.39405621063496</v>
+        <v>33.19076726708465</v>
       </c>
       <c r="W19" s="1">
-        <v>125.7091918859448</v>
+        <v>33.05106855372772</v>
       </c>
       <c r="X19" s="1">
-        <v>128.2990989342222</v>
+        <v>33.09577458353181</v>
       </c>
       <c r="Y19" s="1">
-        <v>117.0006331283914</v>
+        <v>33.07335344613303</v>
       </c>
       <c r="Z19" s="1">
-        <v>32.58461392197925</v>
+        <v>33.53988367692602</v>
       </c>
       <c r="AA19" s="1">
-        <v>32.73423408506458</v>
+        <v>33.51054872428187</v>
       </c>
       <c r="AB19" s="1">
-        <v>32.65901214400433</v>
+        <v>33.52505240290137</v>
       </c>
       <c r="AC19" s="1">
-        <v>383.3913519957266</v>
+        <v>313.8474761596609</v>
       </c>
       <c r="AD19" s="1">
-        <v>364.2099128998208</v>
+        <v>345.6084185620612</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.8732097594224578</v>
+        <v>3.779581424208535</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.9029313715495778</v>
+        <v>3.489165484435753</v>
       </c>
       <c r="AG19" s="1">
-        <v>2.500180375468248</v>
+        <v>0.5575685683349287</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.394793986964224</v>
+        <v>0.5600759963865585</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.969689677289581</v>
+        <v>2.607700560502857</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6.686519691715331</v>
+        <v>1.729923927046148</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.2880956909229901</v>
+        <v>0.4220185205549137</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.2887856989807536</v>
+        <v>0.4143522178348891</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.8004122272435543</v>
+        <v>1.000912044329546</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.804899782472757</v>
+        <v>0.9921971328655744</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.02588813542060508</v>
+        <v>0.03602863059043711</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.02684072361998675</v>
+        <v>0.03406927582963137</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.06464140018040967</v>
+        <v>0.03550889646828168</v>
       </c>
       <c r="AR19" s="1">
-        <v>58.12383617568418</v>
+        <v>54.73703952016494</v>
       </c>
       <c r="AS19" s="1">
-        <v>18.53119434517822</v>
+        <v>13.791729448191</v>
       </c>
       <c r="AT19" s="1">
-        <v>14.45260753866466</v>
+        <v>13.74626955007102</v>
       </c>
       <c r="AU19" s="1">
-        <v>45.05388648943029</v>
+        <v>43.27274189442736</v>
       </c>
       <c r="AV19" s="1">
-        <v>26.50019800391904</v>
+        <v>26.72761330372729</v>
       </c>
       <c r="AW19" s="1">
-        <v>68.07701317870323</v>
+        <v>59.28994724879954</v>
       </c>
       <c r="AX19" s="1">
-        <v>33.39009695651441</v>
+        <v>34.43416744319764</v>
       </c>
       <c r="AY19" s="1">
-        <v>58.67251353061329</v>
+        <v>54.21443966962454</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.0727994427506</v>
+        <v>14.21229695760369</v>
       </c>
       <c r="BA19" s="1">
-        <v>15.11169912581427</v>
+        <v>14.17566921014862</v>
       </c>
       <c r="BB19" s="1">
-        <v>45.30017879723798</v>
+        <v>42.9332324984438</v>
       </c>
       <c r="BC19" s="1">
-        <v>26.45929161355908</v>
+        <v>26.71312638635422</v>
       </c>
       <c r="BD19" s="1">
-        <v>69.9312296587172</v>
+        <v>58.54909159325241</v>
       </c>
       <c r="BE19" s="1">
-        <v>33.2751684193083</v>
+        <v>34.32479631547384</v>
       </c>
       <c r="BF19" s="1">
-        <v>65.94336638527203</v>
+        <v>62.99655608831053</v>
       </c>
       <c r="BG19" s="1">
-        <v>25.87076705435178</v>
+        <v>23.0003653107008</v>
       </c>
       <c r="BH19" s="1">
-        <v>15.87896219670682</v>
+        <v>15.11512614797295</v>
       </c>
       <c r="BI19" s="1">
-        <v>49.59522648201608</v>
+        <v>47.87694882395241</v>
       </c>
       <c r="BJ19" s="1">
-        <v>26.59591053823923</v>
+        <v>26.53897240095715</v>
       </c>
       <c r="BK19" s="1">
-        <v>84.88969792284632</v>
+        <v>78.59954216685684</v>
       </c>
       <c r="BL19" s="1">
-        <v>31.39405375442622</v>
+        <v>33.43310153385173</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
@@ -3735,139 +3735,139 @@
         <v>127</v>
       </c>
       <c r="T20" s="1">
-        <v>21.48222644086484</v>
+        <v>21.11464542538474</v>
       </c>
       <c r="U20" s="1">
-        <v>21.4736420636925</v>
+        <v>21.13234417363152</v>
       </c>
       <c r="V20" s="1">
-        <v>21.47795644211709</v>
+        <v>21.12343928424528</v>
       </c>
       <c r="W20" s="1">
-        <v>43.04973347392388</v>
+        <v>21.0002574722388</v>
       </c>
       <c r="X20" s="1">
-        <v>58.20541814779752</v>
+        <v>21.01449481532443</v>
       </c>
       <c r="Y20" s="1">
-        <v>45.66472378653148</v>
+        <v>21.00732786014865</v>
       </c>
       <c r="Z20" s="1">
-        <v>12.051741148136</v>
+        <v>11.78458001495757</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.09237510802517</v>
+        <v>11.76917277710845</v>
       </c>
       <c r="AB20" s="1">
-        <v>12.07192071472824</v>
+        <v>11.77682178438769</v>
       </c>
       <c r="AC20" s="1">
-        <v>139.0417311082584</v>
+        <v>435.3897052334041</v>
       </c>
       <c r="AD20" s="1">
-        <v>254.7018253132742</v>
+        <v>3310.266927465744</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.6198217905922123</v>
+        <v>3.546298796760065</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.6413330469025686</v>
+        <v>3.264940269837544</v>
       </c>
       <c r="AG20" s="1">
-        <v>6.01393940717372</v>
+        <v>1.217812830811052</v>
       </c>
       <c r="AH20" s="1">
-        <v>5.678567756154422</v>
+        <v>1.217873631703866</v>
       </c>
       <c r="AI20" s="1">
-        <v>362.6495775603448</v>
+        <v>512.621074974979</v>
       </c>
       <c r="AJ20" s="1">
-        <v>155.9652343452169</v>
+        <v>107.1173517954939</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.76812341853423</v>
+        <v>13.93161587912313</v>
       </c>
       <c r="AL20" s="1">
-        <v>11.78835289535497</v>
+        <v>13.7210697329499</v>
       </c>
       <c r="AM20" s="1">
-        <v>8.581126771110302</v>
+        <v>11.81863330660721</v>
       </c>
       <c r="AN20" s="1">
-        <v>8.754044693669154</v>
+        <v>11.76854650003429</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.05176467555388609</v>
+        <v>0.072033442122679</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.05370876709950478</v>
+        <v>0.06811298658496451</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.1290906560909311</v>
+        <v>0.07098417798472215</v>
       </c>
       <c r="AR20" s="1">
-        <v>8.820460566354591</v>
+        <v>8.508856585928703</v>
       </c>
       <c r="AS20" s="1">
-        <v>26.33656505757747</v>
+        <v>16.08854433894743</v>
       </c>
       <c r="AT20" s="1">
-        <v>7.68413748774818</v>
+        <v>6.969385865722171</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.324113755022061</v>
+        <v>8.13732720375055</v>
       </c>
       <c r="AV20" s="1">
-        <v>7.26700900173893</v>
+        <v>7.332488557179454</v>
       </c>
       <c r="AW20" s="1">
-        <v>11.56586241978095</v>
+        <v>10.63361599938455</v>
       </c>
       <c r="AX20" s="1">
-        <v>6.902030148001956</v>
+        <v>6.929823030801272</v>
       </c>
       <c r="AY20" s="1">
-        <v>8.996965901413297</v>
+        <v>8.573221021368672</v>
       </c>
       <c r="AZ20" s="1">
-        <v>26.05154134234842</v>
+        <v>14.70852838542848</v>
       </c>
       <c r="BA20" s="1">
-        <v>7.867908289926256</v>
+        <v>6.956530099447242</v>
       </c>
       <c r="BB20" s="1">
-        <v>8.433915027248078</v>
+        <v>8.174319301973991</v>
       </c>
       <c r="BC20" s="1">
-        <v>7.257202221592012</v>
+        <v>7.328744296636531</v>
       </c>
       <c r="BD20" s="1">
-        <v>12.16012485327722</v>
+        <v>10.92857345920219</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.889853676876981</v>
+        <v>6.894327566455075</v>
       </c>
       <c r="BF20" s="1">
-        <v>9.616459783298785</v>
+        <v>9.195035330567343</v>
       </c>
       <c r="BG20" s="1">
-        <v>69.26843965444395</v>
+        <v>59.35124777746216</v>
       </c>
       <c r="BH20" s="1">
-        <v>9.50689945659459</v>
+        <v>8.995736448101217</v>
       </c>
       <c r="BI20" s="1">
-        <v>8.919083266939541</v>
+        <v>8.613402827091523</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.356252726570022</v>
+        <v>7.332546969400933</v>
       </c>
       <c r="BK20" s="1">
-        <v>13.09246536322963</v>
+        <v>12.1603016869416</v>
       </c>
       <c r="BL20" s="1">
-        <v>5.021887986595737</v>
+        <v>5.228323527995454</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>
